--- a/ESTACOES/Metadata_EstacoesIPMA.xlsx
+++ b/ESTACOES/Metadata_EstacoesIPMA.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edgar\Desktop\PG-Data Science BI\DSP\IPMA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/20b7461a50991538/Documentos/Meu Pessoal/Pós Gradução ISEG/^N5 DSP - Data Science Project/GitHub/Rep Estações/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{415740E4-B8F0-4A1A-B78B-B1B3733CE8A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{415740E4-B8F0-4A1A-B78B-B1B3733CE8A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{13CC4D70-7232-404A-A10F-D86CD197A310}"/>
   <bookViews>
-    <workbookView xWindow="765" yWindow="3075" windowWidth="21600" windowHeight="11385" xr2:uid="{2AA21341-956F-4B0B-9575-6E8B083247B0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2AA21341-956F-4B0B-9575-6E8B083247B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$151</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -433,9 +436,6 @@
     <t>Horta</t>
   </si>
   <si>
-    <t>Lajes, St. Rita</t>
-  </si>
-  <si>
     <t>Praia da Vitória</t>
   </si>
   <si>
@@ -866,6 +866,9 @@
   </si>
   <si>
     <t>ÉVORA</t>
+  </si>
+  <si>
+    <t>Lajes-St. Rita</t>
   </si>
 </sst>
 </file>
@@ -1066,7 +1069,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1365,15 +1368,15 @@
   <dimension ref="A1:H151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F103" sqref="F103"/>
+      <selection activeCell="C158" sqref="C158"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.140625" customWidth="1"/>
+    <col min="1" max="1" width="23.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1399,7 +1402,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -1425,7 +1428,7 @@
         <v>35194</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -1451,7 +1454,7 @@
         <v>36515</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>13</v>
       </c>
@@ -1477,7 +1480,7 @@
         <v>35200</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>15</v>
       </c>
@@ -1503,7 +1506,7 @@
         <v>40199</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>17</v>
       </c>
@@ -1529,7 +1532,7 @@
         <v>37222</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>19</v>
       </c>
@@ -1555,7 +1558,7 @@
         <v>37221</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
         <v>21</v>
       </c>
@@ -1581,7 +1584,7 @@
         <v>35578</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>23</v>
       </c>
@@ -1607,7 +1610,7 @@
         <v>36371</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
         <v>25</v>
       </c>
@@ -1633,7 +1636,7 @@
         <v>37257</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>28</v>
       </c>
@@ -1659,7 +1662,7 @@
         <v>42055</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
         <v>30</v>
       </c>
@@ -1685,7 +1688,7 @@
         <v>36523</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>32</v>
       </c>
@@ -1711,7 +1714,7 @@
         <v>36598</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
         <v>35</v>
       </c>
@@ -1737,7 +1740,7 @@
         <v>36448</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>37</v>
       </c>
@@ -1763,7 +1766,7 @@
         <v>41596</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
         <v>39</v>
       </c>
@@ -1789,7 +1792,7 @@
         <v>35398</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>41</v>
       </c>
@@ -1815,7 +1818,7 @@
         <v>36503</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="8" t="s">
         <v>43</v>
       </c>
@@ -1841,7 +1844,7 @@
         <v>37257</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>45</v>
       </c>
@@ -1867,7 +1870,7 @@
         <v>35374</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="8" t="s">
         <v>46</v>
       </c>
@@ -1893,7 +1896,7 @@
         <v>35065</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>48</v>
       </c>
@@ -1919,7 +1922,7 @@
         <v>40391</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8" t="s">
         <v>50</v>
       </c>
@@ -1945,7 +1948,7 @@
         <v>35198</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>52</v>
       </c>
@@ -1971,7 +1974,7 @@
         <v>35065</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="8" t="s">
         <v>54</v>
       </c>
@@ -1997,7 +2000,7 @@
         <v>36488</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
         <v>56</v>
       </c>
@@ -2023,7 +2026,7 @@
         <v>35065</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="8" t="s">
         <v>58</v>
       </c>
@@ -2049,7 +2052,7 @@
         <v>41038</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
         <v>60</v>
       </c>
@@ -2075,7 +2078,7 @@
         <v>35373</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="8" t="s">
         <v>62</v>
       </c>
@@ -2101,7 +2104,7 @@
         <v>35198</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
         <v>64</v>
       </c>
@@ -2127,7 +2130,7 @@
         <v>40004</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="8" t="s">
         <v>66</v>
       </c>
@@ -2153,7 +2156,7 @@
         <v>37246</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
         <v>68</v>
       </c>
@@ -2179,7 +2182,7 @@
         <v>35065</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="8" t="s">
         <v>70</v>
       </c>
@@ -2205,7 +2208,7 @@
         <v>36426</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
         <v>72</v>
       </c>
@@ -2231,7 +2234,7 @@
         <v>35578</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="8" t="s">
         <v>74</v>
       </c>
@@ -2257,7 +2260,7 @@
         <v>35198</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
         <v>76</v>
       </c>
@@ -2283,7 +2286,7 @@
         <v>37330</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="8" t="s">
         <v>78</v>
       </c>
@@ -2309,7 +2312,7 @@
         <v>39981</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
         <v>80</v>
       </c>
@@ -2335,7 +2338,7 @@
         <v>35065</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="8" t="s">
         <v>81</v>
       </c>
@@ -2361,7 +2364,7 @@
         <v>40952</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="5" t="s">
         <v>82</v>
       </c>
@@ -2387,7 +2390,7 @@
         <v>35376</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="8" t="s">
         <v>84</v>
       </c>
@@ -2413,7 +2416,7 @@
         <v>37387</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="5" t="s">
         <v>86</v>
       </c>
@@ -2439,7 +2442,7 @@
         <v>36285</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="8" t="s">
         <v>87</v>
       </c>
@@ -2465,7 +2468,7 @@
         <v>38869</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
         <v>90</v>
       </c>
@@ -2491,7 +2494,7 @@
         <v>38869</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="8" t="s">
         <v>92</v>
       </c>
@@ -2517,7 +2520,7 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="5" t="s">
         <v>93</v>
       </c>
@@ -2543,7 +2546,7 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="8" t="s">
         <v>95</v>
       </c>
@@ -2569,7 +2572,7 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="5" t="s">
         <v>97</v>
       </c>
@@ -2595,7 +2598,7 @@
         <v>38869</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="8" t="s">
         <v>99</v>
       </c>
@@ -2621,7 +2624,7 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="5" t="s">
         <v>101</v>
       </c>
@@ -2647,7 +2650,7 @@
         <v>43709</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="8" t="s">
         <v>103</v>
       </c>
@@ -2673,7 +2676,7 @@
         <v>40087</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="5" t="s">
         <v>105</v>
       </c>
@@ -2699,7 +2702,7 @@
         <v>35377</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="8" t="s">
         <v>107</v>
       </c>
@@ -2725,7 +2728,7 @@
         <v>34711</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="5" t="s">
         <v>109</v>
       </c>
@@ -2751,7 +2754,7 @@
         <v>35065</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="8" t="s">
         <v>111</v>
       </c>
@@ -2777,7 +2780,7 @@
         <v>36455</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="5" t="s">
         <v>113</v>
       </c>
@@ -2803,7 +2806,7 @@
         <v>36326</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="8" t="s">
         <v>115</v>
       </c>
@@ -2829,7 +2832,7 @@
         <v>35065</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="5" t="s">
         <v>117</v>
       </c>
@@ -2855,7 +2858,7 @@
         <v>40561</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="8" t="s">
         <v>77</v>
       </c>
@@ -2881,7 +2884,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="5" t="s">
         <v>122</v>
       </c>
@@ -2907,7 +2910,7 @@
         <v>37257</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="8" t="s">
         <v>123</v>
       </c>
@@ -2933,7 +2936,7 @@
         <v>35065</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="5" t="s">
         <v>124</v>
       </c>
@@ -2959,7 +2962,7 @@
         <v>40199</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="8" t="s">
         <v>126</v>
       </c>
@@ -2985,7 +2988,7 @@
         <v>37384</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="5" t="s">
         <v>128</v>
       </c>
@@ -3011,7 +3014,7 @@
         <v>37387</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="8" t="s">
         <v>129</v>
       </c>
@@ -3037,7 +3040,7 @@
         <v>36557</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="5" t="s">
         <v>131</v>
       </c>
@@ -3063,9 +3066,9 @@
         <v>35065</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="8" t="s">
-        <v>133</v>
+        <v>277</v>
       </c>
       <c r="B66" s="9">
         <v>1300508</v>
@@ -3083,15 +3086,15 @@
         <v>112</v>
       </c>
       <c r="G66" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H66" s="9" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B67" s="6">
         <v>606</v>
@@ -3109,15 +3112,15 @@
         <v>880</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H67" s="7">
         <v>36482</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B68" s="9">
         <v>718</v>
@@ -3135,15 +3138,15 @@
         <v>45</v>
       </c>
       <c r="G68" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H68" s="10">
         <v>39444</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B69" s="6">
         <v>916</v>
@@ -3161,15 +3164,15 @@
         <v>42</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H69" s="7">
         <v>38473</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B70" s="9">
         <v>579</v>
@@ -3187,15 +3190,15 @@
         <v>104</v>
       </c>
       <c r="G70" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H70" s="10">
         <v>35065</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B71" s="6">
         <v>762</v>
@@ -3213,15 +3216,15 @@
         <v>62</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H71" s="7">
         <v>39878</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B72" s="9">
         <v>535</v>
@@ -3239,15 +3242,15 @@
         <v>77</v>
       </c>
       <c r="G72" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H72" s="10">
         <v>36353</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B73" s="6">
         <v>980</v>
@@ -3271,9 +3274,9 @@
         <v>40005</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B74" s="9">
         <v>697</v>
@@ -3291,15 +3294,15 @@
         <v>195</v>
       </c>
       <c r="G74" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H74" s="10">
         <v>35576</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B75" s="6">
         <v>986</v>
@@ -3323,9 +3326,9 @@
         <v>37329</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B76" s="9">
         <v>657</v>
@@ -3343,15 +3346,15 @@
         <v>250</v>
       </c>
       <c r="G76" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H76" s="10">
         <v>40169</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B77" s="6">
         <v>633</v>
@@ -3369,15 +3372,15 @@
         <v>702</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H77" s="7">
         <v>36501</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B78" s="9">
         <v>635</v>
@@ -3395,15 +3398,15 @@
         <v>693</v>
       </c>
       <c r="G78" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H78" s="10">
         <v>36320</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B79" s="6">
         <v>632</v>
@@ -3421,15 +3424,15 @@
         <v>250</v>
       </c>
       <c r="G79" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H79" s="7">
         <v>36364</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B80" s="9">
         <v>637</v>
@@ -3447,15 +3450,15 @@
         <v>644</v>
       </c>
       <c r="G80" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H80" s="10">
         <v>36322</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B81" s="6">
         <v>663</v>
@@ -3473,15 +3476,15 @@
         <v>715</v>
       </c>
       <c r="G81" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H81" s="7">
         <v>37232</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B82" s="9">
         <v>654</v>
@@ -3499,15 +3502,15 @@
         <v>600</v>
       </c>
       <c r="G82" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H82" s="10">
         <v>37232</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B83" s="6">
         <v>611</v>
@@ -3531,9 +3534,9 @@
         <v>36294</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B84" s="9">
         <v>605</v>
@@ -3551,15 +3554,15 @@
         <v>80</v>
       </c>
       <c r="G84" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H84" s="10">
         <v>35199</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B85" s="6">
         <v>826</v>
@@ -3577,15 +3580,15 @@
         <v>110</v>
       </c>
       <c r="G85" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H85" s="7">
         <v>40059</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B86" s="9">
         <v>863</v>
@@ -3603,15 +3606,15 @@
         <v>190</v>
       </c>
       <c r="G86" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H86" s="10">
         <v>35577</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B87" s="6">
         <v>685</v>
@@ -3629,15 +3632,15 @@
         <v>425</v>
       </c>
       <c r="G87" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H87" s="7">
         <v>35427</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B88" s="9">
         <v>932</v>
@@ -3655,15 +3658,15 @@
         <v>140</v>
       </c>
       <c r="G88" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H88" s="10">
         <v>37377</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B89" s="6">
         <v>577</v>
@@ -3681,15 +3684,15 @@
         <v>76</v>
       </c>
       <c r="G89" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H89" s="7">
         <v>36412</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B90" s="9">
         <v>881</v>
@@ -3707,15 +3710,15 @@
         <v>7</v>
       </c>
       <c r="G90" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H90" s="10">
         <v>39448</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B91" s="6">
         <v>686</v>
@@ -3733,15 +3736,15 @@
         <v>890</v>
       </c>
       <c r="G91" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H91" s="7">
         <v>37231</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B92" s="9">
         <v>767</v>
@@ -3759,15 +3762,15 @@
         <v>64</v>
       </c>
       <c r="G92" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H92" s="10">
         <v>40162</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B93" s="6">
         <v>568</v>
@@ -3785,15 +3788,15 @@
         <v>1380</v>
       </c>
       <c r="G93" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H93" s="7">
         <v>35065</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B94" s="9">
         <v>922</v>
@@ -3811,15 +3814,15 @@
         <v>33</v>
       </c>
       <c r="G94" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H94" s="10">
         <v>37387</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B95" s="6">
         <v>972</v>
@@ -3843,9 +3846,9 @@
         <v>42005</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B96" s="9">
         <v>974</v>
@@ -3863,15 +3866,15 @@
         <v>1799</v>
       </c>
       <c r="G96" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H96" s="10">
         <v>42005</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B97" s="6">
         <v>655</v>
@@ -3889,15 +3892,15 @@
         <v>130</v>
       </c>
       <c r="G97" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H97" s="7">
         <v>40147</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B98" s="9">
         <v>960</v>
@@ -3915,15 +3918,15 @@
         <v>257</v>
       </c>
       <c r="G98" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H98" s="10">
         <v>37329</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B99" s="6">
         <v>512</v>
@@ -3941,15 +3944,15 @@
         <v>77</v>
       </c>
       <c r="G99" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H99" s="7">
         <v>35065</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B100" s="9">
         <v>513</v>
@@ -3967,15 +3970,15 @@
         <v>35</v>
       </c>
       <c r="G100" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H100" s="10">
         <v>40142</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B101" s="12">
         <v>990</v>
@@ -3993,15 +3996,15 @@
         <v>298</v>
       </c>
       <c r="G101" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H101" s="13">
         <v>37329</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B102" s="3">
         <v>615</v>
@@ -4019,15 +4022,15 @@
         <v>40</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H102" s="4">
         <v>36313</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B103" s="6">
         <v>571</v>
@@ -4045,15 +4048,15 @@
         <v>597</v>
       </c>
       <c r="G103" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H103" s="7">
         <v>35065</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B104" s="9">
         <v>820</v>
@@ -4071,15 +4074,15 @@
         <v>376</v>
       </c>
       <c r="G104" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H104" s="10">
         <v>40478</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B105" s="6">
         <v>848</v>
@@ -4097,15 +4100,15 @@
         <v>205</v>
       </c>
       <c r="G105" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H105" s="7">
         <v>36497</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B106" s="9">
         <v>1300536</v>
@@ -4123,15 +4126,15 @@
         <v>104</v>
       </c>
       <c r="G106" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H106" s="10">
         <v>43831</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B107" s="6">
         <v>878</v>
@@ -4149,15 +4152,15 @@
         <v>2</v>
       </c>
       <c r="G107" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H107" s="7">
         <v>36504</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B108" s="9">
         <v>903</v>
@@ -4175,15 +4178,15 @@
         <v>74</v>
       </c>
       <c r="G108" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H108" s="10">
         <v>37257</v>
       </c>
     </row>
-    <row r="109" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A109" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B109" s="6">
         <v>545</v>
@@ -4201,15 +4204,15 @@
         <v>69</v>
       </c>
       <c r="G109" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H109" s="7">
         <v>35065</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B110" s="9">
         <v>649</v>
@@ -4227,15 +4230,15 @@
         <v>90</v>
       </c>
       <c r="G110" s="9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H110" s="10">
         <v>40080</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B111" s="6">
         <v>546</v>
@@ -4253,13 +4256,13 @@
         <v>93</v>
       </c>
       <c r="G111" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H111" s="7">
         <v>39845</v>
       </c>
     </row>
-    <row r="112" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="8" t="s">
         <v>94</v>
       </c>
@@ -4285,9 +4288,9 @@
         <v>41705</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A113" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B113" s="6">
         <v>524</v>
@@ -4311,9 +4314,9 @@
         <v>35065</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A114" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B114" s="9">
         <v>806</v>
@@ -4331,15 +4334,15 @@
         <v>379</v>
       </c>
       <c r="G114" s="9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H114" s="10">
         <v>35576</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A115" s="14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B115" s="15">
         <v>984</v>
@@ -4357,15 +4360,15 @@
         <v>580</v>
       </c>
       <c r="G115" s="15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H115" s="16">
         <v>40391</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A116" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B116" s="9">
         <v>840</v>
@@ -4383,15 +4386,15 @@
         <v>249</v>
       </c>
       <c r="G116" s="9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H116" s="10">
         <v>40205</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A117" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B117" s="6">
         <v>729</v>
@@ -4409,15 +4412,15 @@
         <v>69</v>
       </c>
       <c r="G117" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H117" s="7">
         <v>35200</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B118" s="9">
         <v>510</v>
@@ -4435,15 +4438,15 @@
         <v>99</v>
       </c>
       <c r="G118" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H118" s="10">
         <v>36598</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B119" s="6">
         <v>800</v>
@@ -4461,15 +4464,15 @@
         <v>858</v>
       </c>
       <c r="G119" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H119" s="7">
         <v>36329</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B120" s="9">
         <v>533</v>
@@ -4487,15 +4490,15 @@
         <v>25</v>
       </c>
       <c r="G120" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H120" s="10">
         <v>35065</v>
       </c>
     </row>
-    <row r="121" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A121" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B121" s="6">
         <v>521</v>
@@ -4513,15 +4516,15 @@
         <v>58</v>
       </c>
       <c r="G121" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H121" s="7">
         <v>41957</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A122" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B122" s="9">
         <v>746</v>
@@ -4539,15 +4542,15 @@
         <v>38</v>
       </c>
       <c r="G122" s="9" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H122" s="10">
         <v>40177</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A123" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B123" s="6">
         <v>515</v>
@@ -4565,15 +4568,15 @@
         <v>96</v>
       </c>
       <c r="G123" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H123" s="7">
         <v>37371</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A124" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B124" s="9">
         <v>965</v>
@@ -4591,15 +4594,15 @@
         <v>380</v>
       </c>
       <c r="G124" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H124" s="10">
         <v>40391</v>
       </c>
     </row>
-    <row r="125" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A125" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B125" s="6">
         <v>734</v>
@@ -4617,15 +4620,15 @@
         <v>73</v>
       </c>
       <c r="G125" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H125" s="7">
         <v>35200</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A126" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B126" s="9">
         <v>975</v>
@@ -4649,9 +4652,9 @@
         <v>40391</v>
       </c>
     </row>
-    <row r="127" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A127" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B127" s="6">
         <v>520</v>
@@ -4675,9 +4678,9 @@
         <v>42605</v>
       </c>
     </row>
-    <row r="128" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A128" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B128" s="9">
         <v>929</v>
@@ -4695,15 +4698,15 @@
         <v>32</v>
       </c>
       <c r="G128" s="9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H128" s="10">
         <v>37257</v>
       </c>
     </row>
-    <row r="129" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A129" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B129" s="6">
         <v>770</v>
@@ -4721,15 +4724,15 @@
         <v>35</v>
       </c>
       <c r="G129" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H129" s="7">
         <v>35375</v>
       </c>
     </row>
-    <row r="130" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A130" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B130" s="9">
         <v>542</v>
@@ -4747,15 +4750,15 @@
         <v>15</v>
       </c>
       <c r="G130" s="9" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H130" s="10">
         <v>35065</v>
       </c>
     </row>
-    <row r="131" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A131" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B131" s="6">
         <v>541</v>
@@ -4773,15 +4776,15 @@
         <v>103</v>
       </c>
       <c r="G131" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H131" s="7">
         <v>35065</v>
       </c>
     </row>
-    <row r="132" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A132" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B132" s="9">
         <v>927</v>
@@ -4799,15 +4802,15 @@
         <v>99</v>
       </c>
       <c r="G132" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H132" s="10">
         <v>41166</v>
       </c>
     </row>
-    <row r="133" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A133" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B133" s="6">
         <v>721</v>
@@ -4825,15 +4828,15 @@
         <v>40</v>
       </c>
       <c r="G133" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H133" s="7">
         <v>40184</v>
       </c>
     </row>
-    <row r="134" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A134" s="8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B134" s="9">
         <v>967</v>
@@ -4851,15 +4854,15 @@
         <v>97</v>
       </c>
       <c r="G134" s="9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H134" s="10">
         <v>40391</v>
       </c>
     </row>
-    <row r="135" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A135" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B135" s="6">
         <v>724</v>
@@ -4877,15 +4880,15 @@
         <v>75</v>
       </c>
       <c r="G135" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H135" s="7">
         <v>35195</v>
       </c>
     </row>
-    <row r="136" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A136" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B136" s="9">
         <v>739</v>
@@ -4903,15 +4906,15 @@
         <v>110</v>
       </c>
       <c r="G136" s="9" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H136" s="10">
         <v>34711</v>
       </c>
     </row>
-    <row r="137" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A137" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B137" s="6">
         <v>666</v>
@@ -4929,15 +4932,15 @@
         <v>840</v>
       </c>
       <c r="G137" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H137" s="7">
         <v>36314</v>
       </c>
     </row>
-    <row r="138" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A138" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B138" s="9">
         <v>847</v>
@@ -4955,15 +4958,15 @@
         <v>202</v>
       </c>
       <c r="G138" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H138" s="10">
         <v>40561</v>
       </c>
     </row>
-    <row r="139" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A139" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B139" s="6">
         <v>551</v>
@@ -4981,15 +4984,15 @@
         <v>48</v>
       </c>
       <c r="G139" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H139" s="7">
         <v>38777</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A140" s="8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B140" s="9">
         <v>543</v>
@@ -5007,15 +5010,15 @@
         <v>16</v>
       </c>
       <c r="G140" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H140" s="10">
         <v>35065</v>
       </c>
     </row>
-    <row r="141" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A141" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B141" s="6">
         <v>610</v>
@@ -5033,15 +5036,15 @@
         <v>18</v>
       </c>
       <c r="G141" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H141" s="7">
         <v>40604</v>
       </c>
     </row>
-    <row r="142" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A142" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B142" s="9">
         <v>604</v>
@@ -5059,15 +5062,15 @@
         <v>34</v>
       </c>
       <c r="G142" s="9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H142" s="10">
         <v>36275</v>
       </c>
     </row>
-    <row r="143" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A143" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B143" s="6">
         <v>567</v>
@@ -5085,15 +5088,15 @@
         <v>561</v>
       </c>
       <c r="G143" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H143" s="7">
         <v>35065</v>
       </c>
     </row>
-    <row r="144" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A144" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B144" s="9">
         <v>566</v>
@@ -5111,15 +5114,15 @@
         <v>481</v>
       </c>
       <c r="G144" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H144" s="10">
         <v>40329</v>
       </c>
     </row>
-    <row r="145" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A145" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B145" s="6">
         <v>866</v>
@@ -5137,15 +5140,15 @@
         <v>11</v>
       </c>
       <c r="G145" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H145" s="7">
         <v>40561</v>
       </c>
     </row>
-    <row r="146" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A146" s="8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B146" s="9">
         <v>612</v>
@@ -5163,15 +5166,15 @@
         <v>773</v>
       </c>
       <c r="G146" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H146" s="10">
         <v>40417</v>
       </c>
     </row>
-    <row r="147" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A147" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B147" s="6">
         <v>560</v>
@@ -5189,15 +5192,15 @@
         <v>636</v>
       </c>
       <c r="G147" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H147" s="7">
         <v>35065</v>
       </c>
     </row>
-    <row r="148" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A148" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B148" s="9">
         <v>675</v>
@@ -5215,15 +5218,15 @@
         <v>443</v>
       </c>
       <c r="G148" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H148" s="10">
         <v>40633</v>
       </c>
     </row>
-    <row r="149" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A149" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B149" s="6">
         <v>788</v>
@@ -5241,15 +5244,15 @@
         <v>67</v>
       </c>
       <c r="G149" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H149" s="7">
         <v>40214</v>
       </c>
     </row>
-    <row r="150" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A150" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B150" s="9">
         <v>803</v>
@@ -5267,15 +5270,15 @@
         <v>374</v>
       </c>
       <c r="G150" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H150" s="10">
         <v>36348</v>
       </c>
     </row>
-    <row r="151" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A151" s="11" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B151" s="12">
         <v>558</v>
@@ -5293,13 +5296,14 @@
         <v>246</v>
       </c>
       <c r="G151" s="12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H151" s="13">
         <v>35065</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H151" xr:uid="{BC278F5C-6B91-4340-86AD-2BDD84606118}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/ESTACOES/Metadata_EstacoesIPMA.xlsx
+++ b/ESTACOES/Metadata_EstacoesIPMA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/20b7461a50991538/Documentos/Meu Pessoal/Pós Gradução ISEG/^N5 DSP - Data Science Project/GitHub/Rep Estações/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/20b7461a50991538/Documentos/Meu Pessoal/Pós Gradução ISEG/^N5 DSP - Data Science Project/Analises/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{415740E4-B8F0-4A1A-B78B-B1B3733CE8A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{13CC4D70-7232-404A-A10F-D86CD197A310}"/>
+  <xr:revisionPtr revIDLastSave="204" documentId="8_{415740E4-B8F0-4A1A-B78B-B1B3733CE8A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5ED720BA-DE0F-4AF7-B7C6-410185814F28}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2AA21341-956F-4B0B-9575-6E8B083247B0}"/>
   </bookViews>
@@ -16,9 +16,9 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$151</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$152</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="326">
   <si>
     <t>Nome</t>
   </si>
@@ -869,6 +871,150 @@
   </si>
   <si>
     <t>Lajes-St. Rita</t>
+  </si>
+  <si>
+    <t>Main Station</t>
+  </si>
+  <si>
+    <t>ALCOBACA</t>
+  </si>
+  <si>
+    <t>ALCAC. SAL</t>
+  </si>
+  <si>
+    <t>COVILHA</t>
+  </si>
+  <si>
+    <t>SETUBAL</t>
+  </si>
+  <si>
+    <t>ALVALADE</t>
+  </si>
+  <si>
+    <t>ALVEGA</t>
+  </si>
+  <si>
+    <t>LISBOA/GC</t>
+  </si>
+  <si>
+    <t>ANSIAO</t>
+  </si>
+  <si>
+    <t>AVEIRO/UNI</t>
+  </si>
+  <si>
+    <t>LAVRADIO</t>
+  </si>
+  <si>
+    <t>BRAGANCA</t>
+  </si>
+  <si>
+    <t>C.BASTO</t>
+  </si>
+  <si>
+    <t>LEIRIA/Aer</t>
+  </si>
+  <si>
+    <t>CABRIL</t>
+  </si>
+  <si>
+    <t>C.ANSIAES</t>
+  </si>
+  <si>
+    <t>C.BRANCO</t>
+  </si>
+  <si>
+    <t>C.MARIM</t>
+  </si>
+  <si>
+    <t>N. CORVO</t>
+  </si>
+  <si>
+    <t>COIMBRA/CE</t>
+  </si>
+  <si>
+    <t>FIG.FOZ</t>
+  </si>
+  <si>
+    <t>FC.RODRIGO</t>
+  </si>
+  <si>
+    <t>PORTIMAO</t>
+  </si>
+  <si>
+    <t>LAM.MOURO</t>
+  </si>
+  <si>
+    <t>LOUSA</t>
+  </si>
+  <si>
+    <t>PORTO/PR</t>
+  </si>
+  <si>
+    <t>MCAVALEIRO</t>
+  </si>
+  <si>
+    <t>M.DOURO</t>
+  </si>
+  <si>
+    <t>MOIM.BEIRA</t>
+  </si>
+  <si>
+    <t>MONCORVO</t>
+  </si>
+  <si>
+    <t>MONCAO</t>
+  </si>
+  <si>
+    <t>EVORA/CC</t>
+  </si>
+  <si>
+    <t>MERTOLA.VF</t>
+  </si>
+  <si>
+    <t>PAMP.SERRA</t>
+  </si>
+  <si>
+    <t>P.DOURADAS</t>
+  </si>
+  <si>
+    <t>VISEU/CC</t>
+  </si>
+  <si>
+    <t>P.LIMA</t>
+  </si>
+  <si>
+    <t>PROENCA</t>
+  </si>
+  <si>
+    <t>R.MAIOR</t>
+  </si>
+  <si>
+    <t>SAGRES</t>
+  </si>
+  <si>
+    <t>SANTAREMFB</t>
+  </si>
+  <si>
+    <t>SINES/MC</t>
+  </si>
+  <si>
+    <t>D.PORTOS</t>
+  </si>
+  <si>
+    <t>V.CASTELO</t>
+  </si>
+  <si>
+    <t>V.REAL</t>
+  </si>
+  <si>
+    <t>ZEBREIRA</t>
+  </si>
+  <si>
+    <t>FUNCHAL</t>
+  </si>
+  <si>
+    <t>Main Station NUM</t>
   </si>
 </sst>
 </file>
@@ -1001,7 +1147,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1050,6 +1196,9 @@
     </xf>
     <xf numFmtId="14" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1365,10 +1514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC278F5C-6B91-4340-86AD-2BDD84606118}">
-  <dimension ref="A1:H151"/>
+  <dimension ref="A1:J151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C158" sqref="C158"/>
+    <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
+      <selection activeCell="I151" sqref="I151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1376,7 +1525,7 @@
     <col min="1" max="1" width="23.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1401,8 +1550,14 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I1" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -1427,8 +1582,14 @@
       <c r="H2" s="4">
         <v>35194</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I2" t="s">
+        <v>279</v>
+      </c>
+      <c r="J2">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -1453,8 +1614,14 @@
       <c r="H3" s="7">
         <v>36515</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>13</v>
       </c>
@@ -1479,8 +1646,14 @@
       <c r="H4" s="10">
         <v>35200</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I4" t="s">
+        <v>280</v>
+      </c>
+      <c r="J4">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>15</v>
       </c>
@@ -1505,8 +1678,14 @@
       <c r="H5" s="7">
         <v>40199</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I5" t="s">
+        <v>281</v>
+      </c>
+      <c r="J5">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>17</v>
       </c>
@@ -1531,8 +1710,14 @@
       <c r="H6" s="10">
         <v>37222</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I6" t="s">
+        <v>110</v>
+      </c>
+      <c r="J6">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>19</v>
       </c>
@@ -1557,8 +1742,14 @@
       <c r="H7" s="7">
         <v>37221</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I7" t="s">
+        <v>282</v>
+      </c>
+      <c r="J7">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
         <v>21</v>
       </c>
@@ -1583,8 +1774,14 @@
       <c r="H8" s="10">
         <v>35578</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I8" t="s">
+        <v>283</v>
+      </c>
+      <c r="J8">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>23</v>
       </c>
@@ -1609,8 +1806,14 @@
       <c r="H9" s="7">
         <v>36371</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I9" t="s">
+        <v>284</v>
+      </c>
+      <c r="J9">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
         <v>25</v>
       </c>
@@ -1635,8 +1838,14 @@
       <c r="H10" s="10">
         <v>37257</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I10" t="s">
+        <v>285</v>
+      </c>
+      <c r="J10">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>28</v>
       </c>
@@ -1661,8 +1870,14 @@
       <c r="H11" s="7">
         <v>42055</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I11" t="s">
+        <v>47</v>
+      </c>
+      <c r="J11">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
         <v>30</v>
       </c>
@@ -1687,8 +1902,14 @@
       <c r="H12" s="10">
         <v>36523</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I12" t="s">
+        <v>31</v>
+      </c>
+      <c r="J12">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>32</v>
       </c>
@@ -1713,8 +1934,14 @@
       <c r="H13" s="7">
         <v>36598</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I13" t="s">
+        <v>171</v>
+      </c>
+      <c r="J13">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
         <v>35</v>
       </c>
@@ -1739,8 +1966,14 @@
       <c r="H14" s="10">
         <v>36448</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I14" t="s">
+        <v>286</v>
+      </c>
+      <c r="J14">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>37</v>
       </c>
@@ -1765,8 +1998,14 @@
       <c r="H15" s="7">
         <v>41596</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I15" t="s">
+        <v>38</v>
+      </c>
+      <c r="J15">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
         <v>39</v>
       </c>
@@ -1791,8 +2030,14 @@
       <c r="H16" s="10">
         <v>35398</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I16" t="s">
+        <v>287</v>
+      </c>
+      <c r="J16">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>41</v>
       </c>
@@ -1817,8 +2062,14 @@
       <c r="H17" s="7">
         <v>36503</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I17" t="s">
+        <v>42</v>
+      </c>
+      <c r="J17">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="8" t="s">
         <v>43</v>
       </c>
@@ -1843,8 +2094,14 @@
       <c r="H18" s="10">
         <v>37257</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I18" t="s">
+        <v>282</v>
+      </c>
+      <c r="J18">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>45</v>
       </c>
@@ -1869,8 +2126,14 @@
       <c r="H19" s="7">
         <v>35374</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I19" t="s">
+        <v>288</v>
+      </c>
+      <c r="J19">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="8" t="s">
         <v>46</v>
       </c>
@@ -1895,8 +2158,14 @@
       <c r="H20" s="10">
         <v>35065</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I20" t="s">
+        <v>47</v>
+      </c>
+      <c r="J20">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>48</v>
       </c>
@@ -1921,8 +2190,14 @@
       <c r="H21" s="7">
         <v>40391</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I21" t="s">
+        <v>324</v>
+      </c>
+      <c r="J21">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8" t="s">
         <v>50</v>
       </c>
@@ -1947,8 +2222,14 @@
       <c r="H22" s="10">
         <v>35198</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I22" t="s">
+        <v>51</v>
+      </c>
+      <c r="J22">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>52</v>
       </c>
@@ -1973,8 +2254,14 @@
       <c r="H23" s="7">
         <v>35065</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I23" t="s">
+        <v>289</v>
+      </c>
+      <c r="J23">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="8" t="s">
         <v>54</v>
       </c>
@@ -1999,8 +2286,14 @@
       <c r="H24" s="10">
         <v>36488</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I24" t="s">
+        <v>290</v>
+      </c>
+      <c r="J24">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
         <v>56</v>
       </c>
@@ -2025,8 +2318,14 @@
       <c r="H25" s="7">
         <v>35065</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I25" t="s">
+        <v>291</v>
+      </c>
+      <c r="J25">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="8" t="s">
         <v>58</v>
       </c>
@@ -2051,8 +2350,14 @@
       <c r="H26" s="10">
         <v>41038</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I26" t="s">
+        <v>285</v>
+      </c>
+      <c r="J26">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
         <v>60</v>
       </c>
@@ -2077,8 +2382,14 @@
       <c r="H27" s="7">
         <v>35373</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I27" t="s">
+        <v>285</v>
+      </c>
+      <c r="J27">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="8" t="s">
         <v>62</v>
       </c>
@@ -2103,8 +2414,14 @@
       <c r="H28" s="10">
         <v>35198</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I28" t="s">
+        <v>292</v>
+      </c>
+      <c r="J28">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
         <v>64</v>
       </c>
@@ -2129,8 +2446,14 @@
       <c r="H29" s="7">
         <v>40004</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I29" t="s">
+        <v>324</v>
+      </c>
+      <c r="J29">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="8" t="s">
         <v>66</v>
       </c>
@@ -2155,8 +2478,14 @@
       <c r="H30" s="10">
         <v>37246</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I30" t="s">
+        <v>293</v>
+      </c>
+      <c r="J30">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
         <v>68</v>
       </c>
@@ -2181,8 +2510,14 @@
       <c r="H31" s="7">
         <v>35065</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I31" t="s">
+        <v>294</v>
+      </c>
+      <c r="J31">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="8" t="s">
         <v>70</v>
       </c>
@@ -2207,8 +2542,14 @@
       <c r="H32" s="10">
         <v>36426</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I32" t="s">
+        <v>295</v>
+      </c>
+      <c r="J32">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
         <v>72</v>
       </c>
@@ -2233,8 +2574,14 @@
       <c r="H33" s="7">
         <v>35578</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I33" t="s">
+        <v>296</v>
+      </c>
+      <c r="J33">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="8" t="s">
         <v>74</v>
       </c>
@@ -2259,8 +2606,14 @@
       <c r="H34" s="10">
         <v>35198</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I34" t="s">
+        <v>75</v>
+      </c>
+      <c r="J34">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
         <v>76</v>
       </c>
@@ -2285,8 +2638,14 @@
       <c r="H35" s="7">
         <v>37330</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I35" t="s">
+        <v>324</v>
+      </c>
+      <c r="J35">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="8" t="s">
         <v>78</v>
       </c>
@@ -2311,8 +2670,14 @@
       <c r="H36" s="10">
         <v>39981</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I36" t="s">
+        <v>297</v>
+      </c>
+      <c r="J36">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
         <v>80</v>
       </c>
@@ -2337,8 +2702,14 @@
       <c r="H37" s="7">
         <v>35065</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I37" t="s">
+        <v>297</v>
+      </c>
+      <c r="J37">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="8" t="s">
         <v>81</v>
       </c>
@@ -2363,8 +2734,14 @@
       <c r="H38" s="10">
         <v>40952</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I38" t="s">
+        <v>285</v>
+      </c>
+      <c r="J38">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="5" t="s">
         <v>82</v>
       </c>
@@ -2389,8 +2766,14 @@
       <c r="H39" s="7">
         <v>35376</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I39" t="s">
+        <v>83</v>
+      </c>
+      <c r="J39">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="8" t="s">
         <v>84</v>
       </c>
@@ -2415,8 +2798,14 @@
       <c r="H40" s="10">
         <v>37387</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I40" t="s">
+        <v>171</v>
+      </c>
+      <c r="J40">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="5" t="s">
         <v>86</v>
       </c>
@@ -2441,8 +2830,14 @@
       <c r="H41" s="7">
         <v>36285</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I41" t="s">
+        <v>281</v>
+      </c>
+      <c r="J41">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="8" t="s">
         <v>87</v>
       </c>
@@ -2467,8 +2862,14 @@
       <c r="H42" s="10">
         <v>38869</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I42" t="s">
+        <v>51</v>
+      </c>
+      <c r="J42">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
         <v>90</v>
       </c>
@@ -2493,8 +2894,14 @@
       <c r="H43" s="7">
         <v>38869</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I43" t="s">
+        <v>294</v>
+      </c>
+      <c r="J43">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="8" t="s">
         <v>92</v>
       </c>
@@ -2519,8 +2926,14 @@
       <c r="H44" s="10">
         <v>43831</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I44" t="s">
+        <v>324</v>
+      </c>
+      <c r="J44">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="5" t="s">
         <v>93</v>
       </c>
@@ -2545,8 +2958,14 @@
       <c r="H45" s="7">
         <v>43831</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I45" t="s">
+        <v>324</v>
+      </c>
+      <c r="J45">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="8" t="s">
         <v>95</v>
       </c>
@@ -2571,8 +2990,14 @@
       <c r="H46" s="10">
         <v>43831</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I46" t="s">
+        <v>324</v>
+      </c>
+      <c r="J46">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="5" t="s">
         <v>97</v>
       </c>
@@ -2597,8 +3022,14 @@
       <c r="H47" s="7">
         <v>38869</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I47" t="s">
+        <v>110</v>
+      </c>
+      <c r="J47">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="8" t="s">
         <v>99</v>
       </c>
@@ -2623,8 +3054,14 @@
       <c r="H48" s="10">
         <v>43831</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I48" t="s">
+        <v>324</v>
+      </c>
+      <c r="J48">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="5" t="s">
         <v>101</v>
       </c>
@@ -2649,8 +3086,14 @@
       <c r="H49" s="7">
         <v>43709</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I49" t="s">
+        <v>285</v>
+      </c>
+      <c r="J49">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="8" t="s">
         <v>103</v>
       </c>
@@ -2675,8 +3118,14 @@
       <c r="H50" s="10">
         <v>40087</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I50" t="s">
+        <v>297</v>
+      </c>
+      <c r="J50">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="5" t="s">
         <v>105</v>
       </c>
@@ -2701,8 +3150,14 @@
       <c r="H51" s="7">
         <v>35377</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I51" t="s">
+        <v>106</v>
+      </c>
+      <c r="J51">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="8" t="s">
         <v>107</v>
       </c>
@@ -2727,8 +3182,14 @@
       <c r="H52" s="10">
         <v>34711</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I52" t="s">
+        <v>108</v>
+      </c>
+      <c r="J52">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="5" t="s">
         <v>109</v>
       </c>
@@ -2753,8 +3214,14 @@
       <c r="H53" s="7">
         <v>35065</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I53" t="s">
+        <v>110</v>
+      </c>
+      <c r="J53">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="8" t="s">
         <v>111</v>
       </c>
@@ -2779,8 +3246,14 @@
       <c r="H54" s="10">
         <v>36455</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I54" t="s">
+        <v>298</v>
+      </c>
+      <c r="J54">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="5" t="s">
         <v>113</v>
       </c>
@@ -2805,8 +3278,14 @@
       <c r="H55" s="7">
         <v>36326</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I55" t="s">
+        <v>299</v>
+      </c>
+      <c r="J55">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="8" t="s">
         <v>115</v>
       </c>
@@ -2831,8 +3310,14 @@
       <c r="H56" s="10">
         <v>35065</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I56" t="s">
+        <v>171</v>
+      </c>
+      <c r="J56">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="5" t="s">
         <v>117</v>
       </c>
@@ -2857,8 +3342,14 @@
       <c r="H57" s="7">
         <v>40561</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I57" t="s">
+        <v>300</v>
+      </c>
+      <c r="J57">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="8" t="s">
         <v>77</v>
       </c>
@@ -2883,8 +3374,14 @@
       <c r="H58" s="9" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I58" t="s">
+        <v>324</v>
+      </c>
+      <c r="J58">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="5" t="s">
         <v>122</v>
       </c>
@@ -2909,8 +3406,14 @@
       <c r="H59" s="7">
         <v>37257</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I59" t="s">
+        <v>324</v>
+      </c>
+      <c r="J59">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="8" t="s">
         <v>123</v>
       </c>
@@ -2935,8 +3438,14 @@
       <c r="H60" s="10">
         <v>35065</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I60" t="s">
+        <v>324</v>
+      </c>
+      <c r="J60">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="5" t="s">
         <v>124</v>
       </c>
@@ -2961,8 +3470,14 @@
       <c r="H61" s="7">
         <v>40199</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I61" t="s">
+        <v>294</v>
+      </c>
+      <c r="J61">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="8" t="s">
         <v>126</v>
       </c>
@@ -2987,8 +3502,14 @@
       <c r="H62" s="10">
         <v>37384</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I62" t="s">
+        <v>171</v>
+      </c>
+      <c r="J62">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="5" t="s">
         <v>128</v>
       </c>
@@ -3013,8 +3534,14 @@
       <c r="H63" s="7">
         <v>37387</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I63" t="s">
+        <v>171</v>
+      </c>
+      <c r="J63">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="8" t="s">
         <v>129</v>
       </c>
@@ -3039,8 +3566,14 @@
       <c r="H64" s="10">
         <v>36557</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I64" t="s">
+        <v>130</v>
+      </c>
+      <c r="J64">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="5" t="s">
         <v>131</v>
       </c>
@@ -3065,8 +3598,14 @@
       <c r="H65" s="7">
         <v>35065</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I65" t="s">
+        <v>171</v>
+      </c>
+      <c r="J65">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="8" t="s">
         <v>277</v>
       </c>
@@ -3091,8 +3630,14 @@
       <c r="H66" s="9" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I66" t="s">
+        <v>171</v>
+      </c>
+      <c r="J66">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="5" t="s">
         <v>134</v>
       </c>
@@ -3117,8 +3662,14 @@
       <c r="H67" s="7">
         <v>36482</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I67" t="s">
+        <v>301</v>
+      </c>
+      <c r="J67">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="8" t="s">
         <v>136</v>
       </c>
@@ -3143,8 +3694,14 @@
       <c r="H68" s="10">
         <v>39444</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I68" t="s">
+        <v>291</v>
+      </c>
+      <c r="J68">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="5" t="s">
         <v>138</v>
       </c>
@@ -3169,8 +3726,14 @@
       <c r="H69" s="7">
         <v>38473</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I69" t="s">
+        <v>291</v>
+      </c>
+      <c r="J69">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="8" t="s">
         <v>139</v>
       </c>
@@ -3195,8 +3758,14 @@
       <c r="H70" s="10">
         <v>35065</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I70" t="s">
+        <v>285</v>
+      </c>
+      <c r="J70">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="5" t="s">
         <v>141</v>
       </c>
@@ -3221,8 +3790,14 @@
       <c r="H71" s="7">
         <v>39878</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I71" t="s">
+        <v>285</v>
+      </c>
+      <c r="J71">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="8" t="s">
         <v>142</v>
       </c>
@@ -3247,8 +3822,14 @@
       <c r="H72" s="10">
         <v>36353</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I72" t="s">
+        <v>285</v>
+      </c>
+      <c r="J72">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="5" t="s">
         <v>143</v>
       </c>
@@ -3273,8 +3854,14 @@
       <c r="H73" s="7">
         <v>40005</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I73" t="s">
+        <v>324</v>
+      </c>
+      <c r="J73">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="8" t="s">
         <v>144</v>
       </c>
@@ -3299,8 +3886,14 @@
       <c r="H74" s="10">
         <v>35576</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I74" t="s">
+        <v>302</v>
+      </c>
+      <c r="J74">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="5" t="s">
         <v>146</v>
       </c>
@@ -3325,8 +3918,14 @@
       <c r="H75" s="7">
         <v>37329</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I75" t="s">
+        <v>324</v>
+      </c>
+      <c r="J75">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="8" t="s">
         <v>147</v>
       </c>
@@ -3351,8 +3950,14 @@
       <c r="H76" s="10">
         <v>40169</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I76" t="s">
+        <v>303</v>
+      </c>
+      <c r="J76">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="5" t="s">
         <v>149</v>
       </c>
@@ -3377,8 +3982,14 @@
       <c r="H77" s="7">
         <v>36501</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I77" t="s">
+        <v>304</v>
+      </c>
+      <c r="J77">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="8" t="s">
         <v>151</v>
       </c>
@@ -3403,8 +4014,14 @@
       <c r="H78" s="10">
         <v>36320</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I78" t="s">
+        <v>305</v>
+      </c>
+      <c r="J78">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="5" t="s">
         <v>153</v>
       </c>
@@ -3429,8 +4046,14 @@
       <c r="H79" s="7">
         <v>36364</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I79" t="s">
+        <v>154</v>
+      </c>
+      <c r="J79">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="8" t="s">
         <v>155</v>
       </c>
@@ -3455,8 +4078,14 @@
       <c r="H80" s="10">
         <v>36322</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I80" t="s">
+        <v>156</v>
+      </c>
+      <c r="J80">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="5" t="s">
         <v>157</v>
       </c>
@@ -3481,8 +4110,14 @@
       <c r="H81" s="7">
         <v>37232</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I81" t="s">
+        <v>306</v>
+      </c>
+      <c r="J81">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="8" t="s">
         <v>159</v>
       </c>
@@ -3507,8 +4142,14 @@
       <c r="H82" s="10">
         <v>37232</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I82" t="s">
+        <v>307</v>
+      </c>
+      <c r="J82">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="5" t="s">
         <v>161</v>
       </c>
@@ -3533,8 +4174,14 @@
       <c r="H83" s="7">
         <v>36294</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I83" t="s">
+        <v>63</v>
+      </c>
+      <c r="J83">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="8" t="s">
         <v>162</v>
       </c>
@@ -3559,8 +4206,14 @@
       <c r="H84" s="10">
         <v>35199</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I84" t="s">
+        <v>308</v>
+      </c>
+      <c r="J84">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="5" t="s">
         <v>164</v>
       </c>
@@ -3585,8 +4238,14 @@
       <c r="H85" s="7">
         <v>40059</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I85" t="s">
+        <v>309</v>
+      </c>
+      <c r="J85">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="8" t="s">
         <v>166</v>
       </c>
@@ -3611,8 +4270,14 @@
       <c r="H86" s="10">
         <v>35577</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I86" t="s">
+        <v>310</v>
+      </c>
+      <c r="J86">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="5" t="s">
         <v>168</v>
       </c>
@@ -3637,8 +4302,14 @@
       <c r="H87" s="7">
         <v>35427</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I87" t="s">
+        <v>169</v>
+      </c>
+      <c r="J87">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="8" t="s">
         <v>170</v>
       </c>
@@ -3663,8 +4334,14 @@
       <c r="H88" s="10">
         <v>37377</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I88" t="s">
+        <v>171</v>
+      </c>
+      <c r="J88">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="5" t="s">
         <v>172</v>
       </c>
@@ -3689,8 +4366,14 @@
       <c r="H89" s="7">
         <v>36412</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I89" t="s">
+        <v>47</v>
+      </c>
+      <c r="J89">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="8" t="s">
         <v>174</v>
       </c>
@@ -3715,8 +4398,14 @@
       <c r="H90" s="10">
         <v>39448</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I90" t="s">
+        <v>110</v>
+      </c>
+      <c r="J90">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="5" t="s">
         <v>176</v>
       </c>
@@ -3741,8 +4430,14 @@
       <c r="H91" s="7">
         <v>37231</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I91" t="s">
+        <v>311</v>
+      </c>
+      <c r="J91">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="8" t="s">
         <v>178</v>
       </c>
@@ -3767,8 +4462,14 @@
       <c r="H92" s="10">
         <v>40162</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I92" t="s">
+        <v>282</v>
+      </c>
+      <c r="J92">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="5" t="s">
         <v>180</v>
       </c>
@@ -3793,8 +4494,14 @@
       <c r="H93" s="7">
         <v>35065</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I93" t="s">
+        <v>312</v>
+      </c>
+      <c r="J93">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="8" t="s">
         <v>182</v>
       </c>
@@ -3819,8 +4526,14 @@
       <c r="H94" s="10">
         <v>37387</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I94" t="s">
+        <v>171</v>
+      </c>
+      <c r="J94">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="5" t="s">
         <v>184</v>
       </c>
@@ -3845,8 +4558,14 @@
       <c r="H95" s="7">
         <v>42005</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I95" t="s">
+        <v>324</v>
+      </c>
+      <c r="J95">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="8" t="s">
         <v>185</v>
       </c>
@@ -3871,8 +4590,14 @@
       <c r="H96" s="10">
         <v>42005</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I96" t="s">
+        <v>324</v>
+      </c>
+      <c r="J96">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="5" t="s">
         <v>187</v>
       </c>
@@ -3897,8 +4622,14 @@
       <c r="H97" s="7">
         <v>40147</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I97" t="s">
+        <v>313</v>
+      </c>
+      <c r="J97">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="8" t="s">
         <v>189</v>
       </c>
@@ -3923,8 +4654,14 @@
       <c r="H98" s="10">
         <v>37329</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I98" t="s">
+        <v>324</v>
+      </c>
+      <c r="J98">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="5" t="s">
         <v>190</v>
       </c>
@@ -3949,8 +4686,14 @@
       <c r="H99" s="7">
         <v>35065</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I99" t="s">
+        <v>171</v>
+      </c>
+      <c r="J99">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="8" t="s">
         <v>192</v>
       </c>
@@ -3975,8 +4718,14 @@
       <c r="H100" s="10">
         <v>40142</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I100" t="s">
+        <v>171</v>
+      </c>
+      <c r="J100">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="11" t="s">
         <v>193</v>
       </c>
@@ -4001,8 +4750,14 @@
       <c r="H101" s="13">
         <v>37329</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I101" t="s">
+        <v>324</v>
+      </c>
+      <c r="J101">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="2" t="s">
         <v>195</v>
       </c>
@@ -4027,8 +4782,14 @@
       <c r="H102" s="4">
         <v>36313</v>
       </c>
-    </row>
-    <row r="103" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I102" t="s">
+        <v>314</v>
+      </c>
+      <c r="J102">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="5" t="s">
         <v>197</v>
       </c>
@@ -4053,8 +4814,14 @@
       <c r="H103" s="7">
         <v>35065</v>
       </c>
-    </row>
-    <row r="104" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I103" t="s">
+        <v>198</v>
+      </c>
+      <c r="J103">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="8" t="s">
         <v>199</v>
       </c>
@@ -4079,8 +4846,14 @@
       <c r="H104" s="10">
         <v>40478</v>
       </c>
-    </row>
-    <row r="105" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I104" t="s">
+        <v>198</v>
+      </c>
+      <c r="J104">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" s="5" t="s">
         <v>200</v>
       </c>
@@ -4105,8 +4878,14 @@
       <c r="H105" s="7">
         <v>36497</v>
       </c>
-    </row>
-    <row r="106" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I105" t="s">
+        <v>201</v>
+      </c>
+      <c r="J105">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" s="8" t="s">
         <v>202</v>
       </c>
@@ -4131,8 +4910,14 @@
       <c r="H106" s="10">
         <v>43831</v>
       </c>
-    </row>
-    <row r="107" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I106" t="s">
+        <v>285</v>
+      </c>
+      <c r="J106">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" s="5" t="s">
         <v>204</v>
       </c>
@@ -4157,8 +4942,14 @@
       <c r="H107" s="7">
         <v>36504</v>
       </c>
-    </row>
-    <row r="108" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I107" t="s">
+        <v>300</v>
+      </c>
+      <c r="J107">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" s="8" t="s">
         <v>206</v>
       </c>
@@ -4183,8 +4974,14 @@
       <c r="H108" s="10">
         <v>37257</v>
       </c>
-    </row>
-    <row r="109" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I108" t="s">
+        <v>303</v>
+      </c>
+      <c r="J108">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A109" s="5" t="s">
         <v>208</v>
       </c>
@@ -4209,8 +5006,14 @@
       <c r="H109" s="7">
         <v>35065</v>
       </c>
-    </row>
-    <row r="110" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I109" t="s">
+        <v>303</v>
+      </c>
+      <c r="J109">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" s="8" t="s">
         <v>210</v>
       </c>
@@ -4235,8 +5038,14 @@
       <c r="H110" s="10">
         <v>40080</v>
       </c>
-    </row>
-    <row r="111" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I110" t="s">
+        <v>303</v>
+      </c>
+      <c r="J110">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="5" t="s">
         <v>211</v>
       </c>
@@ -4261,8 +5070,14 @@
       <c r="H111" s="7">
         <v>39845</v>
       </c>
-    </row>
-    <row r="112" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I111" t="s">
+        <v>303</v>
+      </c>
+      <c r="J111">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="8" t="s">
         <v>94</v>
       </c>
@@ -4287,8 +5102,14 @@
       <c r="H112" s="10">
         <v>41705</v>
       </c>
-    </row>
-    <row r="113" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I112" t="s">
+        <v>324</v>
+      </c>
+      <c r="J112">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A113" s="5" t="s">
         <v>213</v>
       </c>
@@ -4313,8 +5134,14 @@
       <c r="H113" s="7">
         <v>35065</v>
       </c>
-    </row>
-    <row r="114" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I113" t="s">
+        <v>324</v>
+      </c>
+      <c r="J113">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A114" s="8" t="s">
         <v>214</v>
       </c>
@@ -4339,8 +5166,14 @@
       <c r="H114" s="10">
         <v>35576</v>
       </c>
-    </row>
-    <row r="115" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I114" t="s">
+        <v>315</v>
+      </c>
+      <c r="J114">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A115" s="14" t="s">
         <v>216</v>
       </c>
@@ -4365,8 +5198,14 @@
       <c r="H115" s="16">
         <v>40391</v>
       </c>
-    </row>
-    <row r="116" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I115" t="s">
+        <v>324</v>
+      </c>
+      <c r="J115">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A116" s="8" t="s">
         <v>218</v>
       </c>
@@ -4391,8 +5230,14 @@
       <c r="H116" s="10">
         <v>40205</v>
       </c>
-    </row>
-    <row r="117" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I116" t="s">
+        <v>309</v>
+      </c>
+      <c r="J116">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A117" s="5" t="s">
         <v>220</v>
       </c>
@@ -4417,8 +5262,14 @@
       <c r="H117" s="7">
         <v>35200</v>
       </c>
-    </row>
-    <row r="118" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I117" t="s">
+        <v>316</v>
+      </c>
+      <c r="J117">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="8" t="s">
         <v>222</v>
       </c>
@@ -4443,8 +5294,14 @@
       <c r="H118" s="10">
         <v>36598</v>
       </c>
-    </row>
-    <row r="119" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I118" t="s">
+        <v>171</v>
+      </c>
+      <c r="J118">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="5" t="s">
         <v>224</v>
       </c>
@@ -4469,8 +5326,14 @@
       <c r="H119" s="7">
         <v>36329</v>
       </c>
-    </row>
-    <row r="120" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I119" t="s">
+        <v>225</v>
+      </c>
+      <c r="J119">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" s="8" t="s">
         <v>226</v>
       </c>
@@ -4495,8 +5358,14 @@
       <c r="H120" s="10">
         <v>35065</v>
       </c>
-    </row>
-    <row r="121" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I120" t="s">
+        <v>317</v>
+      </c>
+      <c r="J120">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A121" s="5" t="s">
         <v>228</v>
       </c>
@@ -4521,8 +5390,14 @@
       <c r="H121" s="7">
         <v>41957</v>
       </c>
-    </row>
-    <row r="122" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I121" t="s">
+        <v>324</v>
+      </c>
+      <c r="J121">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A122" s="8" t="s">
         <v>230</v>
       </c>
@@ -4547,8 +5422,14 @@
       <c r="H122" s="10">
         <v>40177</v>
       </c>
-    </row>
-    <row r="123" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I122" t="s">
+        <v>285</v>
+      </c>
+      <c r="J122">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A123" s="5" t="s">
         <v>232</v>
       </c>
@@ -4573,8 +5454,14 @@
       <c r="H123" s="7">
         <v>37371</v>
       </c>
-    </row>
-    <row r="124" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I123" t="s">
+        <v>171</v>
+      </c>
+      <c r="J123">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A124" s="8" t="s">
         <v>186</v>
       </c>
@@ -4599,8 +5486,14 @@
       <c r="H124" s="10">
         <v>40391</v>
       </c>
-    </row>
-    <row r="125" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I124" t="s">
+        <v>324</v>
+      </c>
+      <c r="J124">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A125" s="5" t="s">
         <v>234</v>
       </c>
@@ -4625,8 +5518,14 @@
       <c r="H125" s="7">
         <v>35200</v>
       </c>
-    </row>
-    <row r="126" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I125" t="s">
+        <v>318</v>
+      </c>
+      <c r="J125">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A126" s="8" t="s">
         <v>236</v>
       </c>
@@ -4651,8 +5550,14 @@
       <c r="H126" s="10">
         <v>40391</v>
       </c>
-    </row>
-    <row r="127" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I126" t="s">
+        <v>324</v>
+      </c>
+      <c r="J126">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A127" s="5" t="s">
         <v>237</v>
       </c>
@@ -4677,8 +5582,14 @@
       <c r="H127" s="7">
         <v>42605</v>
       </c>
-    </row>
-    <row r="128" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I127" t="s">
+        <v>324</v>
+      </c>
+      <c r="J127">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A128" s="8" t="s">
         <v>238</v>
       </c>
@@ -4703,8 +5614,14 @@
       <c r="H128" s="10">
         <v>37257</v>
       </c>
-    </row>
-    <row r="129" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I128" t="s">
+        <v>282</v>
+      </c>
+      <c r="J128">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A129" s="5" t="s">
         <v>240</v>
       </c>
@@ -4729,8 +5646,14 @@
       <c r="H129" s="7">
         <v>35375</v>
       </c>
-    </row>
-    <row r="130" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I129" t="s">
+        <v>282</v>
+      </c>
+      <c r="J129">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A130" s="8" t="s">
         <v>241</v>
       </c>
@@ -4755,8 +5678,14 @@
       <c r="H130" s="10">
         <v>35065</v>
       </c>
-    </row>
-    <row r="131" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I130" t="s">
+        <v>319</v>
+      </c>
+      <c r="J130">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A131" s="5" t="s">
         <v>243</v>
       </c>
@@ -4781,8 +5710,14 @@
       <c r="H131" s="7">
         <v>35065</v>
       </c>
-    </row>
-    <row r="132" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I131" t="s">
+        <v>319</v>
+      </c>
+      <c r="J131">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A132" s="8" t="s">
         <v>244</v>
       </c>
@@ -4807,8 +5742,14 @@
       <c r="H132" s="10">
         <v>41166</v>
       </c>
-    </row>
-    <row r="133" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I132" t="s">
+        <v>171</v>
+      </c>
+      <c r="J132">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A133" s="5" t="s">
         <v>246</v>
       </c>
@@ -4833,8 +5774,14 @@
       <c r="H133" s="7">
         <v>40184</v>
       </c>
-    </row>
-    <row r="134" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I133" t="s">
+        <v>291</v>
+      </c>
+      <c r="J133">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A134" s="8" t="s">
         <v>248</v>
       </c>
@@ -4859,8 +5806,14 @@
       <c r="H134" s="10">
         <v>40391</v>
       </c>
-    </row>
-    <row r="135" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I134" t="s">
+        <v>324</v>
+      </c>
+      <c r="J134">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A135" s="5" t="s">
         <v>249</v>
       </c>
@@ -4885,8 +5838,14 @@
       <c r="H135" s="7">
         <v>35195</v>
       </c>
-    </row>
-    <row r="136" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I135" t="s">
+        <v>250</v>
+      </c>
+      <c r="J135">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A136" s="8" t="s">
         <v>251</v>
       </c>
@@ -4911,8 +5870,14 @@
       <c r="H136" s="10">
         <v>34711</v>
       </c>
-    </row>
-    <row r="137" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I136" t="s">
+        <v>320</v>
+      </c>
+      <c r="J136">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A137" s="5" t="s">
         <v>252</v>
       </c>
@@ -4937,8 +5902,14 @@
       <c r="H137" s="7">
         <v>36314</v>
       </c>
-    </row>
-    <row r="138" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I137" t="s">
+        <v>253</v>
+      </c>
+      <c r="J137">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A138" s="8" t="s">
         <v>254</v>
       </c>
@@ -4963,8 +5934,14 @@
       <c r="H138" s="10">
         <v>40561</v>
       </c>
-    </row>
-    <row r="139" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I138" t="s">
+        <v>309</v>
+      </c>
+      <c r="J138">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A139" s="5" t="s">
         <v>256</v>
       </c>
@@ -4989,8 +5966,14 @@
       <c r="H139" s="7">
         <v>38777</v>
       </c>
-    </row>
-    <row r="140" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I139" t="s">
+        <v>321</v>
+      </c>
+      <c r="J139">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A140" s="8" t="s">
         <v>258</v>
       </c>
@@ -5015,8 +5998,14 @@
       <c r="H140" s="10">
         <v>35065</v>
       </c>
-    </row>
-    <row r="141" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I140" t="s">
+        <v>321</v>
+      </c>
+      <c r="J140">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A141" s="5" t="s">
         <v>259</v>
       </c>
@@ -5041,8 +6030,14 @@
       <c r="H141" s="7">
         <v>40604</v>
       </c>
-    </row>
-    <row r="142" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I141" t="s">
+        <v>321</v>
+      </c>
+      <c r="J141">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A142" s="8" t="s">
         <v>260</v>
       </c>
@@ -5067,8 +6062,14 @@
       <c r="H142" s="10">
         <v>36275</v>
       </c>
-    </row>
-    <row r="143" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I142" t="s">
+        <v>321</v>
+      </c>
+      <c r="J142">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A143" s="5" t="s">
         <v>262</v>
       </c>
@@ -5093,8 +6094,14 @@
       <c r="H143" s="7">
         <v>35065</v>
       </c>
-    </row>
-    <row r="144" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I143" t="s">
+        <v>322</v>
+      </c>
+      <c r="J143">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A144" s="8" t="s">
         <v>264</v>
       </c>
@@ -5119,8 +6126,14 @@
       <c r="H144" s="10">
         <v>40329</v>
       </c>
-    </row>
-    <row r="145" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I144" t="s">
+        <v>322</v>
+      </c>
+      <c r="J144">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A145" s="5" t="s">
         <v>265</v>
       </c>
@@ -5145,8 +6158,14 @@
       <c r="H145" s="7">
         <v>40561</v>
       </c>
-    </row>
-    <row r="146" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I145" t="s">
+        <v>110</v>
+      </c>
+      <c r="J145">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A146" s="8" t="s">
         <v>267</v>
       </c>
@@ -5171,8 +6190,14 @@
       <c r="H146" s="10">
         <v>40417</v>
       </c>
-    </row>
-    <row r="147" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I146" t="s">
+        <v>289</v>
+      </c>
+      <c r="J146">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A147" s="5" t="s">
         <v>269</v>
       </c>
@@ -5197,8 +6222,14 @@
       <c r="H147" s="7">
         <v>35065</v>
       </c>
-    </row>
-    <row r="148" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I147" t="s">
+        <v>313</v>
+      </c>
+      <c r="J147">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A148" s="8" t="s">
         <v>271</v>
       </c>
@@ -5223,8 +6254,14 @@
       <c r="H148" s="10">
         <v>40633</v>
       </c>
-    </row>
-    <row r="149" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I148" t="s">
+        <v>313</v>
+      </c>
+      <c r="J148">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A149" s="5" t="s">
         <v>272</v>
       </c>
@@ -5249,8 +6286,14 @@
       <c r="H149" s="7">
         <v>40214</v>
       </c>
-    </row>
-    <row r="150" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I149" t="s">
+        <v>47</v>
+      </c>
+      <c r="J149">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A150" s="8" t="s">
         <v>273</v>
       </c>
@@ -5275,8 +6318,14 @@
       <c r="H150" s="10">
         <v>36348</v>
       </c>
-    </row>
-    <row r="151" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I150" t="s">
+        <v>323</v>
+      </c>
+      <c r="J150">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A151" s="11" t="s">
         <v>275</v>
       </c>
@@ -5301,9 +6350,15 @@
       <c r="H151" s="13">
         <v>35065</v>
       </c>
+      <c r="I151" t="s">
+        <v>309</v>
+      </c>
+      <c r="J151">
+        <v>558</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H151" xr:uid="{BC278F5C-6B91-4340-86AD-2BDD84606118}"/>
+  <autoFilter ref="A1:J152" xr:uid="{BC278F5C-6B91-4340-86AD-2BDD84606118}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/ESTACOES/Metadata_EstacoesIPMA.xlsx
+++ b/ESTACOES/Metadata_EstacoesIPMA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/20b7461a50991538/Documentos/Meu Pessoal/Pós Gradução ISEG/^N5 DSP - Data Science Project/Analises/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="204" documentId="8_{415740E4-B8F0-4A1A-B78B-B1B3733CE8A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5ED720BA-DE0F-4AF7-B7C6-410185814F28}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DAF98159-D1A3-40EC-A5F0-E04D4715AA0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2AA21341-956F-4B0B-9575-6E8B083247B0}"/>
   </bookViews>
@@ -306,15 +306,9 @@
     <t>Detetor Descargas Elétricas</t>
   </si>
   <si>
-    <t>BRAGA, Aeródromo - Palmeira</t>
-  </si>
-  <si>
     <t>Detetor CBR</t>
   </si>
   <si>
-    <t>Castelo Branco, Centro Coordenador</t>
-  </si>
-  <si>
     <t>Detetor MFUN</t>
   </si>
   <si>
@@ -327,15 +321,9 @@
     <t>Detetor MSANT</t>
   </si>
   <si>
-    <t>Ilha da Madeira, Santana</t>
-  </si>
-  <si>
     <t>Detetor OLH</t>
   </si>
   <si>
-    <t>Olhão, R. N. da Ria Formosa</t>
-  </si>
-  <si>
     <t>Detetor PSANT</t>
   </si>
   <si>
@@ -345,9 +333,6 @@
     <t>Detetor SCRUZ</t>
   </si>
   <si>
-    <t>Torres Vedras, Aeródromo - Santa Cruz</t>
-  </si>
-  <si>
     <t>Dunas de Mira</t>
   </si>
   <si>
@@ -399,9 +384,6 @@
     <t>Radiosondagem</t>
   </si>
   <si>
-    <t>Funchal, Observatório</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -648,9 +630,6 @@
     <t>Portela</t>
   </si>
   <si>
-    <t>Lisboa, Portela</t>
-  </si>
-  <si>
     <t>Portimão / Aeródromo</t>
   </si>
   <si>
@@ -1015,6 +994,27 @@
   </si>
   <si>
     <t>Main Station NUM</t>
+  </si>
+  <si>
+    <t>BRAGA- Aeródromo - Palmeira</t>
+  </si>
+  <si>
+    <t>Castelo Branco- Centro Coordenador</t>
+  </si>
+  <si>
+    <t>Ilha da Madeira- Santana</t>
+  </si>
+  <si>
+    <t>Olhão- R. N. da Ria Formosa</t>
+  </si>
+  <si>
+    <t>Torres Vedras- Aeródromo - Santa Cruz</t>
+  </si>
+  <si>
+    <t>Funchal- Observatório</t>
+  </si>
+  <si>
+    <t>Lisboa- Portela</t>
   </si>
 </sst>
 </file>
@@ -1516,8 +1516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC278F5C-6B91-4340-86AD-2BDD84606118}">
   <dimension ref="A1:J151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
-      <selection activeCell="I151" sqref="I151"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1551,10 +1551,10 @@
         <v>7</v>
       </c>
       <c r="I1" s="17" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="J1" s="17" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -1583,7 +1583,7 @@
         <v>35194</v>
       </c>
       <c r="I2" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="J2">
         <v>726</v>
@@ -1647,7 +1647,7 @@
         <v>35200</v>
       </c>
       <c r="I4" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="J4">
         <v>776</v>
@@ -1679,7 +1679,7 @@
         <v>40199</v>
       </c>
       <c r="I5" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="J5">
         <v>687</v>
@@ -1711,7 +1711,7 @@
         <v>37222</v>
       </c>
       <c r="I6" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="J6">
         <v>554</v>
@@ -1743,7 +1743,7 @@
         <v>37221</v>
       </c>
       <c r="I7" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="J7">
         <v>770</v>
@@ -1775,7 +1775,7 @@
         <v>35578</v>
       </c>
       <c r="I8" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="J8">
         <v>783</v>
@@ -1807,7 +1807,7 @@
         <v>36371</v>
       </c>
       <c r="I9" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="J9">
         <v>812</v>
@@ -1839,7 +1839,7 @@
         <v>37257</v>
       </c>
       <c r="I10" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="J10">
         <v>579</v>
@@ -1935,7 +1935,7 @@
         <v>36598</v>
       </c>
       <c r="I13" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="J13">
         <v>932</v>
@@ -1967,7 +1967,7 @@
         <v>36448</v>
       </c>
       <c r="I14" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="J14">
         <v>716</v>
@@ -2031,7 +2031,7 @@
         <v>35398</v>
       </c>
       <c r="I16" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="J16">
         <v>702</v>
@@ -2095,7 +2095,7 @@
         <v>37257</v>
       </c>
       <c r="I18" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="J18">
         <v>770</v>
@@ -2127,7 +2127,7 @@
         <v>35374</v>
       </c>
       <c r="I19" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="J19">
         <v>766</v>
@@ -2191,7 +2191,7 @@
         <v>40391</v>
       </c>
       <c r="I21" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="J21">
         <v>522</v>
@@ -2255,7 +2255,7 @@
         <v>35065</v>
       </c>
       <c r="I23" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="J23">
         <v>575</v>
@@ -2287,7 +2287,7 @@
         <v>36488</v>
       </c>
       <c r="I24" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="J24">
         <v>630</v>
@@ -2319,7 +2319,7 @@
         <v>35065</v>
       </c>
       <c r="I25" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="J25">
         <v>718</v>
@@ -2351,7 +2351,7 @@
         <v>41038</v>
       </c>
       <c r="I26" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="J26">
         <v>579</v>
@@ -2383,7 +2383,7 @@
         <v>35373</v>
       </c>
       <c r="I27" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="J27">
         <v>579</v>
@@ -2415,7 +2415,7 @@
         <v>35198</v>
       </c>
       <c r="I28" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="J28">
         <v>619</v>
@@ -2447,7 +2447,7 @@
         <v>40004</v>
       </c>
       <c r="I29" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="J29">
         <v>522</v>
@@ -2479,7 +2479,7 @@
         <v>37246</v>
       </c>
       <c r="I30" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="J30">
         <v>644</v>
@@ -2511,7 +2511,7 @@
         <v>35065</v>
       </c>
       <c r="I31" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="J31">
         <v>570</v>
@@ -2543,7 +2543,7 @@
         <v>36426</v>
       </c>
       <c r="I32" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="J32">
         <v>867</v>
@@ -2575,7 +2575,7 @@
         <v>35578</v>
       </c>
       <c r="I33" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="J33">
         <v>864</v>
@@ -2639,7 +2639,7 @@
         <v>37330</v>
       </c>
       <c r="I35" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="J35">
         <v>522</v>
@@ -2671,7 +2671,7 @@
         <v>39981</v>
       </c>
       <c r="I36" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="J36">
         <v>548</v>
@@ -2703,7 +2703,7 @@
         <v>35065</v>
       </c>
       <c r="I37" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="J37">
         <v>548</v>
@@ -2735,7 +2735,7 @@
         <v>40952</v>
       </c>
       <c r="I38" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="J38">
         <v>579</v>
@@ -2799,7 +2799,7 @@
         <v>37387</v>
       </c>
       <c r="I40" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="J40">
         <v>932</v>
@@ -2831,7 +2831,7 @@
         <v>36285</v>
       </c>
       <c r="I41" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="J41">
         <v>687</v>
@@ -2857,7 +2857,7 @@
         <v>138</v>
       </c>
       <c r="G42" s="9" t="s">
-        <v>89</v>
+        <v>319</v>
       </c>
       <c r="H42" s="10">
         <v>38869</v>
@@ -2871,7 +2871,7 @@
     </row>
     <row r="43" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B43" s="6">
         <v>570</v>
@@ -2889,13 +2889,13 @@
         <v>449</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>91</v>
+        <v>320</v>
       </c>
       <c r="H43" s="7">
         <v>38869</v>
       </c>
       <c r="I43" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="J43">
         <v>570</v>
@@ -2903,7 +2903,7 @@
     </row>
     <row r="44" spans="1:10" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B44" s="9">
         <v>522</v>
@@ -2927,7 +2927,7 @@
         <v>43831</v>
       </c>
       <c r="I44" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="J44">
         <v>522</v>
@@ -2935,7 +2935,7 @@
     </row>
     <row r="45" spans="1:10" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B45" s="6">
         <v>522</v>
@@ -2953,13 +2953,13 @@
         <v>1112</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H45" s="7">
         <v>43831</v>
       </c>
       <c r="I45" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="J45">
         <v>522</v>
@@ -2967,7 +2967,7 @@
     </row>
     <row r="46" spans="1:10" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B46" s="9">
         <v>965</v>
@@ -2985,13 +2985,13 @@
         <v>475</v>
       </c>
       <c r="G46" s="9" t="s">
-        <v>96</v>
+        <v>321</v>
       </c>
       <c r="H46" s="10">
         <v>43831</v>
       </c>
       <c r="I46" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="J46">
         <v>522</v>
@@ -2999,7 +2999,7 @@
     </row>
     <row r="47" spans="1:10" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B47" s="6">
         <v>889</v>
@@ -3017,13 +3017,13 @@
         <v>79</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>98</v>
+        <v>322</v>
       </c>
       <c r="H47" s="7">
         <v>38869</v>
       </c>
       <c r="I47" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="J47">
         <v>554</v>
@@ -3031,7 +3031,7 @@
     </row>
     <row r="48" spans="1:10" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="8" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B48" s="9">
         <v>524</v>
@@ -3049,13 +3049,13 @@
         <v>141</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H48" s="10">
         <v>43831</v>
       </c>
       <c r="I48" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="J48">
         <v>522</v>
@@ -3063,7 +3063,7 @@
     </row>
     <row r="49" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="5" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B49" s="6">
         <v>746</v>
@@ -3081,13 +3081,13 @@
         <v>38</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>102</v>
+        <v>323</v>
       </c>
       <c r="H49" s="7">
         <v>43709</v>
       </c>
       <c r="I49" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="J49">
         <v>579</v>
@@ -3095,7 +3095,7 @@
     </row>
     <row r="50" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B50" s="9">
         <v>704</v>
@@ -3113,13 +3113,13 @@
         <v>14</v>
       </c>
       <c r="G50" s="9" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="H50" s="10">
         <v>40087</v>
       </c>
       <c r="I50" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="J50">
         <v>548</v>
@@ -3127,7 +3127,7 @@
     </row>
     <row r="51" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="5" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B51" s="6">
         <v>835</v>
@@ -3145,13 +3145,13 @@
         <v>208</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="H51" s="7">
         <v>35377</v>
       </c>
       <c r="I51" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="J51">
         <v>835</v>
@@ -3159,7 +3159,7 @@
     </row>
     <row r="52" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="8" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B52" s="9">
         <v>837</v>
@@ -3177,13 +3177,13 @@
         <v>366</v>
       </c>
       <c r="G52" s="9" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="H52" s="10">
         <v>34711</v>
       </c>
       <c r="I52" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="J52">
         <v>837</v>
@@ -3191,7 +3191,7 @@
     </row>
     <row r="53" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="5" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B53" s="6">
         <v>554</v>
@@ -3209,13 +3209,13 @@
         <v>8</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="H53" s="7">
         <v>35065</v>
       </c>
       <c r="I53" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="J53">
         <v>554</v>
@@ -3223,7 +3223,7 @@
     </row>
     <row r="54" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="8" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B54" s="9">
         <v>713</v>
@@ -3241,13 +3241,13 @@
         <v>4</v>
       </c>
       <c r="G54" s="9" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="H54" s="10">
         <v>36455</v>
       </c>
       <c r="I54" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="J54">
         <v>713</v>
@@ -3255,7 +3255,7 @@
     </row>
     <row r="55" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="5" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B55" s="6">
         <v>671</v>
@@ -3273,13 +3273,13 @@
         <v>635</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H55" s="7">
         <v>36326</v>
       </c>
       <c r="I55" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="J55">
         <v>671</v>
@@ -3287,7 +3287,7 @@
     </row>
     <row r="56" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="8" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B56" s="9">
         <v>501</v>
@@ -3305,13 +3305,13 @@
         <v>28</v>
       </c>
       <c r="G56" s="9" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="H56" s="10">
         <v>35065</v>
       </c>
       <c r="I56" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="J56">
         <v>932</v>
@@ -3319,7 +3319,7 @@
     </row>
     <row r="57" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="5" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B57" s="6">
         <v>790</v>
@@ -3337,13 +3337,13 @@
         <v>902</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="H57" s="7">
         <v>40561</v>
       </c>
       <c r="I57" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="J57">
         <v>878</v>
@@ -3357,7 +3357,7 @@
         <v>1300522</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D58" s="9">
         <v>32.647525000000002</v>
@@ -3369,13 +3369,13 @@
         <v>58</v>
       </c>
       <c r="G58" s="9" t="s">
-        <v>120</v>
+        <v>324</v>
       </c>
       <c r="H58" s="9" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="I58" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="J58">
         <v>522</v>
@@ -3383,7 +3383,7 @@
     </row>
     <row r="59" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="5" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B59" s="6">
         <v>971</v>
@@ -3407,7 +3407,7 @@
         <v>37257</v>
       </c>
       <c r="I59" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="J59">
         <v>522</v>
@@ -3415,7 +3415,7 @@
     </row>
     <row r="60" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="8" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B60" s="9">
         <v>522</v>
@@ -3439,7 +3439,7 @@
         <v>35065</v>
       </c>
       <c r="I60" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="J60">
         <v>522</v>
@@ -3447,7 +3447,7 @@
     </row>
     <row r="61" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="5" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B61" s="6">
         <v>698</v>
@@ -3465,13 +3465,13 @@
         <v>493</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="H61" s="7">
         <v>40199</v>
       </c>
       <c r="I61" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="J61">
         <v>570</v>
@@ -3479,7 +3479,7 @@
     </row>
     <row r="62" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="8" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B62" s="9">
         <v>912</v>
@@ -3497,13 +3497,13 @@
         <v>25</v>
       </c>
       <c r="G62" s="9" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="H62" s="10">
         <v>37384</v>
       </c>
       <c r="I62" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="J62">
         <v>932</v>
@@ -3511,7 +3511,7 @@
     </row>
     <row r="63" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="5" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B63" s="6">
         <v>507</v>
@@ -3529,13 +3529,13 @@
         <v>25</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="H63" s="7">
         <v>37387</v>
       </c>
       <c r="I63" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="J63">
         <v>932</v>
@@ -3543,7 +3543,7 @@
     </row>
     <row r="64" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="8" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B64" s="9">
         <v>683</v>
@@ -3561,13 +3561,13 @@
         <v>1020</v>
       </c>
       <c r="G64" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="H64" s="10">
         <v>36557</v>
       </c>
       <c r="I64" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="J64">
         <v>683</v>
@@ -3575,7 +3575,7 @@
     </row>
     <row r="65" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="5" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B65" s="6">
         <v>506</v>
@@ -3593,13 +3593,13 @@
         <v>60</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="H65" s="7">
         <v>35065</v>
       </c>
       <c r="I65" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="J65">
         <v>932</v>
@@ -3607,13 +3607,13 @@
     </row>
     <row r="66" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="8" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="B66" s="9">
         <v>1300508</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D66" s="9">
         <v>38.767699999999998</v>
@@ -3625,13 +3625,13 @@
         <v>112</v>
       </c>
       <c r="G66" s="9" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="H66" s="9" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="I66" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="J66">
         <v>932</v>
@@ -3639,7 +3639,7 @@
     </row>
     <row r="67" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="5" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B67" s="6">
         <v>606</v>
@@ -3657,13 +3657,13 @@
         <v>880</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="H67" s="7">
         <v>36482</v>
       </c>
       <c r="I67" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="J67">
         <v>606</v>
@@ -3671,7 +3671,7 @@
     </row>
     <row r="68" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="8" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B68" s="9">
         <v>718</v>
@@ -3689,13 +3689,13 @@
         <v>45</v>
       </c>
       <c r="G68" s="9" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="H68" s="10">
         <v>39444</v>
       </c>
       <c r="I68" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="J68">
         <v>718</v>
@@ -3703,7 +3703,7 @@
     </row>
     <row r="69" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="5" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B69" s="6">
         <v>916</v>
@@ -3721,13 +3721,13 @@
         <v>42</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="H69" s="7">
         <v>38473</v>
       </c>
       <c r="I69" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="J69">
         <v>718</v>
@@ -3735,7 +3735,7 @@
     </row>
     <row r="70" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="8" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B70" s="9">
         <v>579</v>
@@ -3753,13 +3753,13 @@
         <v>104</v>
       </c>
       <c r="G70" s="9" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="H70" s="10">
         <v>35065</v>
       </c>
       <c r="I70" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="J70">
         <v>579</v>
@@ -3767,7 +3767,7 @@
     </row>
     <row r="71" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="5" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B71" s="6">
         <v>762</v>
@@ -3785,13 +3785,13 @@
         <v>62</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="H71" s="7">
         <v>39878</v>
       </c>
       <c r="I71" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="J71">
         <v>579</v>
@@ -3799,7 +3799,7 @@
     </row>
     <row r="72" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="8" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B72" s="9">
         <v>535</v>
@@ -3817,13 +3817,13 @@
         <v>77</v>
       </c>
       <c r="G72" s="9" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="H72" s="10">
         <v>36353</v>
       </c>
       <c r="I72" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="J72">
         <v>579</v>
@@ -3831,7 +3831,7 @@
     </row>
     <row r="73" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="5" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B73" s="6">
         <v>980</v>
@@ -3849,13 +3849,13 @@
         <v>931</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H73" s="7">
         <v>40005</v>
       </c>
       <c r="I73" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="J73">
         <v>522</v>
@@ -3863,7 +3863,7 @@
     </row>
     <row r="74" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="8" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B74" s="9">
         <v>697</v>
@@ -3881,13 +3881,13 @@
         <v>195</v>
       </c>
       <c r="G74" s="9" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="H74" s="10">
         <v>35576</v>
       </c>
       <c r="I74" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="J74">
         <v>697</v>
@@ -3895,7 +3895,7 @@
     </row>
     <row r="75" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="5" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B75" s="6">
         <v>986</v>
@@ -3919,7 +3919,7 @@
         <v>37329</v>
       </c>
       <c r="I75" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="J75">
         <v>522</v>
@@ -3927,7 +3927,7 @@
     </row>
     <row r="76" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="8" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B76" s="9">
         <v>657</v>
@@ -3945,13 +3945,13 @@
         <v>250</v>
       </c>
       <c r="G76" s="9" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="H76" s="10">
         <v>40169</v>
       </c>
       <c r="I76" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="J76">
         <v>545</v>
@@ -3959,7 +3959,7 @@
     </row>
     <row r="77" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="5" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B77" s="6">
         <v>633</v>
@@ -3977,13 +3977,13 @@
         <v>702</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="H77" s="7">
         <v>36501</v>
       </c>
       <c r="I77" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="J77">
         <v>633</v>
@@ -3991,7 +3991,7 @@
     </row>
     <row r="78" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="8" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B78" s="9">
         <v>635</v>
@@ -4009,13 +4009,13 @@
         <v>693</v>
       </c>
       <c r="G78" s="9" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="H78" s="10">
         <v>36320</v>
       </c>
       <c r="I78" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="J78">
         <v>635</v>
@@ -4023,7 +4023,7 @@
     </row>
     <row r="79" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="5" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B79" s="6">
         <v>632</v>
@@ -4041,13 +4041,13 @@
         <v>250</v>
       </c>
       <c r="G79" s="6" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="H79" s="7">
         <v>36364</v>
       </c>
       <c r="I79" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="J79">
         <v>632</v>
@@ -4055,7 +4055,7 @@
     </row>
     <row r="80" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="8" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B80" s="9">
         <v>637</v>
@@ -4073,13 +4073,13 @@
         <v>644</v>
       </c>
       <c r="G80" s="9" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="H80" s="10">
         <v>36322</v>
       </c>
       <c r="I80" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="J80">
         <v>637</v>
@@ -4087,7 +4087,7 @@
     </row>
     <row r="81" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="5" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B81" s="6">
         <v>663</v>
@@ -4105,13 +4105,13 @@
         <v>715</v>
       </c>
       <c r="G81" s="6" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="H81" s="7">
         <v>37232</v>
       </c>
       <c r="I81" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="J81">
         <v>663</v>
@@ -4119,7 +4119,7 @@
     </row>
     <row r="82" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="8" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B82" s="9">
         <v>654</v>
@@ -4137,13 +4137,13 @@
         <v>600</v>
       </c>
       <c r="G82" s="9" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="H82" s="10">
         <v>37232</v>
       </c>
       <c r="I82" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="J82">
         <v>654</v>
@@ -4151,7 +4151,7 @@
     </row>
     <row r="83" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="5" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B83" s="6">
         <v>611</v>
@@ -4183,7 +4183,7 @@
     </row>
     <row r="84" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="8" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B84" s="9">
         <v>605</v>
@@ -4201,13 +4201,13 @@
         <v>80</v>
       </c>
       <c r="G84" s="9" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="H84" s="10">
         <v>35199</v>
       </c>
       <c r="I84" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="J84">
         <v>605</v>
@@ -4215,7 +4215,7 @@
     </row>
     <row r="85" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="5" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B85" s="6">
         <v>826</v>
@@ -4233,13 +4233,13 @@
         <v>110</v>
       </c>
       <c r="G85" s="6" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="H85" s="7">
         <v>40059</v>
       </c>
       <c r="I85" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="J85">
         <v>558</v>
@@ -4247,7 +4247,7 @@
     </row>
     <row r="86" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="8" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B86" s="9">
         <v>863</v>
@@ -4265,13 +4265,13 @@
         <v>190</v>
       </c>
       <c r="G86" s="9" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="H86" s="10">
         <v>35577</v>
       </c>
       <c r="I86" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="J86">
         <v>863</v>
@@ -4279,7 +4279,7 @@
     </row>
     <row r="87" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="5" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B87" s="6">
         <v>685</v>
@@ -4297,13 +4297,13 @@
         <v>425</v>
       </c>
       <c r="G87" s="6" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="H87" s="7">
         <v>35427</v>
       </c>
       <c r="I87" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="J87">
         <v>685</v>
@@ -4311,7 +4311,7 @@
     </row>
     <row r="88" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="8" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B88" s="9">
         <v>932</v>
@@ -4329,13 +4329,13 @@
         <v>140</v>
       </c>
       <c r="G88" s="9" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="H88" s="10">
         <v>37377</v>
       </c>
       <c r="I88" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="J88">
         <v>932</v>
@@ -4343,7 +4343,7 @@
     </row>
     <row r="89" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="5" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B89" s="6">
         <v>577</v>
@@ -4361,7 +4361,7 @@
         <v>76</v>
       </c>
       <c r="G89" s="6" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="H89" s="7">
         <v>36412</v>
@@ -4375,7 +4375,7 @@
     </row>
     <row r="90" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="8" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B90" s="9">
         <v>881</v>
@@ -4393,13 +4393,13 @@
         <v>7</v>
       </c>
       <c r="G90" s="9" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="H90" s="10">
         <v>39448</v>
       </c>
       <c r="I90" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="J90">
         <v>554</v>
@@ -4407,7 +4407,7 @@
     </row>
     <row r="91" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="5" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B91" s="6">
         <v>686</v>
@@ -4425,13 +4425,13 @@
         <v>890</v>
       </c>
       <c r="G91" s="6" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="H91" s="7">
         <v>37231</v>
       </c>
       <c r="I91" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="J91">
         <v>686</v>
@@ -4439,7 +4439,7 @@
     </row>
     <row r="92" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="8" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B92" s="9">
         <v>767</v>
@@ -4457,13 +4457,13 @@
         <v>64</v>
       </c>
       <c r="G92" s="9" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="H92" s="10">
         <v>40162</v>
       </c>
       <c r="I92" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="J92">
         <v>770</v>
@@ -4471,7 +4471,7 @@
     </row>
     <row r="93" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="5" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B93" s="6">
         <v>568</v>
@@ -4489,13 +4489,13 @@
         <v>1380</v>
       </c>
       <c r="G93" s="6" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="H93" s="7">
         <v>35065</v>
       </c>
       <c r="I93" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="J93">
         <v>568</v>
@@ -4503,7 +4503,7 @@
     </row>
     <row r="94" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="8" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B94" s="9">
         <v>922</v>
@@ -4521,13 +4521,13 @@
         <v>33</v>
       </c>
       <c r="G94" s="9" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="H94" s="10">
         <v>37387</v>
       </c>
       <c r="I94" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="J94">
         <v>932</v>
@@ -4535,7 +4535,7 @@
     </row>
     <row r="95" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="5" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B95" s="6">
         <v>972</v>
@@ -4559,7 +4559,7 @@
         <v>42005</v>
       </c>
       <c r="I95" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="J95">
         <v>522</v>
@@ -4567,7 +4567,7 @@
     </row>
     <row r="96" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="8" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B96" s="9">
         <v>974</v>
@@ -4585,13 +4585,13 @@
         <v>1799</v>
       </c>
       <c r="G96" s="9" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="H96" s="10">
         <v>42005</v>
       </c>
       <c r="I96" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="J96">
         <v>522</v>
@@ -4599,7 +4599,7 @@
     </row>
     <row r="97" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="5" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B97" s="6">
         <v>655</v>
@@ -4617,13 +4617,13 @@
         <v>130</v>
       </c>
       <c r="G97" s="6" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="H97" s="7">
         <v>40147</v>
       </c>
       <c r="I97" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="J97">
         <v>560</v>
@@ -4631,7 +4631,7 @@
     </row>
     <row r="98" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="8" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B98" s="9">
         <v>960</v>
@@ -4649,13 +4649,13 @@
         <v>257</v>
       </c>
       <c r="G98" s="9" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="H98" s="10">
         <v>37329</v>
       </c>
       <c r="I98" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="J98">
         <v>522</v>
@@ -4663,7 +4663,7 @@
     </row>
     <row r="99" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="5" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B99" s="6">
         <v>512</v>
@@ -4681,13 +4681,13 @@
         <v>77</v>
       </c>
       <c r="G99" s="6" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="H99" s="7">
         <v>35065</v>
       </c>
       <c r="I99" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="J99">
         <v>932</v>
@@ -4695,7 +4695,7 @@
     </row>
     <row r="100" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="8" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B100" s="9">
         <v>513</v>
@@ -4713,13 +4713,13 @@
         <v>35</v>
       </c>
       <c r="G100" s="9" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="H100" s="10">
         <v>40142</v>
       </c>
       <c r="I100" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="J100">
         <v>932</v>
@@ -4727,7 +4727,7 @@
     </row>
     <row r="101" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="11" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B101" s="12">
         <v>990</v>
@@ -4745,13 +4745,13 @@
         <v>298</v>
       </c>
       <c r="G101" s="12" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="H101" s="13">
         <v>37329</v>
       </c>
       <c r="I101" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="J101">
         <v>522</v>
@@ -4759,7 +4759,7 @@
     </row>
     <row r="102" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="2" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B102" s="3">
         <v>615</v>
@@ -4777,13 +4777,13 @@
         <v>40</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="H102" s="4">
         <v>36313</v>
       </c>
       <c r="I102" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="J102">
         <v>615</v>
@@ -4791,7 +4791,7 @@
     </row>
     <row r="103" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="5" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B103" s="6">
         <v>571</v>
@@ -4809,13 +4809,13 @@
         <v>597</v>
       </c>
       <c r="G103" s="6" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="H103" s="7">
         <v>35065</v>
       </c>
       <c r="I103" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="J103">
         <v>571</v>
@@ -4823,7 +4823,7 @@
     </row>
     <row r="104" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="8" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B104" s="9">
         <v>820</v>
@@ -4841,13 +4841,13 @@
         <v>376</v>
       </c>
       <c r="G104" s="9" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="H104" s="10">
         <v>40478</v>
       </c>
       <c r="I104" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="J104">
         <v>571</v>
@@ -4855,7 +4855,7 @@
     </row>
     <row r="105" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" s="5" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B105" s="6">
         <v>848</v>
@@ -4873,13 +4873,13 @@
         <v>205</v>
       </c>
       <c r="G105" s="6" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="H105" s="7">
         <v>36497</v>
       </c>
       <c r="I105" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="J105">
         <v>848</v>
@@ -4887,13 +4887,13 @@
     </row>
     <row r="106" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" s="8" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="B106" s="9">
         <v>1300536</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D106" s="9">
         <v>38.766183300000002</v>
@@ -4905,13 +4905,13 @@
         <v>104</v>
       </c>
       <c r="G106" s="9" t="s">
-        <v>203</v>
+        <v>325</v>
       </c>
       <c r="H106" s="10">
         <v>43831</v>
       </c>
       <c r="I106" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="J106">
         <v>579</v>
@@ -4919,7 +4919,7 @@
     </row>
     <row r="107" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" s="5" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="B107" s="6">
         <v>878</v>
@@ -4937,13 +4937,13 @@
         <v>2</v>
       </c>
       <c r="G107" s="6" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="H107" s="7">
         <v>36504</v>
       </c>
       <c r="I107" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="J107">
         <v>878</v>
@@ -4951,7 +4951,7 @@
     </row>
     <row r="108" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" s="8" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="B108" s="9">
         <v>903</v>
@@ -4969,13 +4969,13 @@
         <v>74</v>
       </c>
       <c r="G108" s="9" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="H108" s="10">
         <v>37257</v>
       </c>
       <c r="I108" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="J108">
         <v>545</v>
@@ -4983,7 +4983,7 @@
     </row>
     <row r="109" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A109" s="5" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="B109" s="6">
         <v>545</v>
@@ -5001,13 +5001,13 @@
         <v>69</v>
       </c>
       <c r="G109" s="6" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="H109" s="7">
         <v>35065</v>
       </c>
       <c r="I109" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="J109">
         <v>545</v>
@@ -5015,7 +5015,7 @@
     </row>
     <row r="110" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" s="8" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="B110" s="9">
         <v>649</v>
@@ -5033,13 +5033,13 @@
         <v>90</v>
       </c>
       <c r="G110" s="9" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="H110" s="10">
         <v>40080</v>
       </c>
       <c r="I110" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="J110">
         <v>545</v>
@@ -5047,7 +5047,7 @@
     </row>
     <row r="111" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="5" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="B111" s="6">
         <v>546</v>
@@ -5065,13 +5065,13 @@
         <v>93</v>
       </c>
       <c r="G111" s="6" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="H111" s="7">
         <v>39845</v>
       </c>
       <c r="I111" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="J111">
         <v>545</v>
@@ -5079,7 +5079,7 @@
     </row>
     <row r="112" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B112" s="9">
         <v>956</v>
@@ -5097,13 +5097,13 @@
         <v>35</v>
       </c>
       <c r="G112" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H112" s="10">
         <v>41705</v>
       </c>
       <c r="I112" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="J112">
         <v>522</v>
@@ -5111,7 +5111,7 @@
     </row>
     <row r="113" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A113" s="5" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="B113" s="6">
         <v>524</v>
@@ -5129,13 +5129,13 @@
         <v>82</v>
       </c>
       <c r="G113" s="6" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H113" s="7">
         <v>35065</v>
       </c>
       <c r="I113" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="J113">
         <v>522</v>
@@ -5143,7 +5143,7 @@
     </row>
     <row r="114" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A114" s="8" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="B114" s="9">
         <v>806</v>
@@ -5161,13 +5161,13 @@
         <v>379</v>
       </c>
       <c r="G114" s="9" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="H114" s="10">
         <v>35576</v>
       </c>
       <c r="I114" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="J114">
         <v>806</v>
@@ -5175,7 +5175,7 @@
     </row>
     <row r="115" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A115" s="14" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="B115" s="15">
         <v>984</v>
@@ -5193,13 +5193,13 @@
         <v>580</v>
       </c>
       <c r="G115" s="15" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="H115" s="16">
         <v>40391</v>
       </c>
       <c r="I115" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="J115">
         <v>522</v>
@@ -5207,7 +5207,7 @@
     </row>
     <row r="116" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A116" s="8" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="B116" s="9">
         <v>840</v>
@@ -5225,13 +5225,13 @@
         <v>249</v>
       </c>
       <c r="G116" s="9" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="H116" s="10">
         <v>40205</v>
       </c>
       <c r="I116" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="J116">
         <v>558</v>
@@ -5239,7 +5239,7 @@
     </row>
     <row r="117" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A117" s="5" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="B117" s="6">
         <v>729</v>
@@ -5257,13 +5257,13 @@
         <v>69</v>
       </c>
       <c r="G117" s="6" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="H117" s="7">
         <v>35200</v>
       </c>
       <c r="I117" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="J117">
         <v>729</v>
@@ -5271,7 +5271,7 @@
     </row>
     <row r="118" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="8" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="B118" s="9">
         <v>510</v>
@@ -5289,13 +5289,13 @@
         <v>99</v>
       </c>
       <c r="G118" s="9" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="H118" s="10">
         <v>36598</v>
       </c>
       <c r="I118" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="J118">
         <v>932</v>
@@ -5303,7 +5303,7 @@
     </row>
     <row r="119" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="5" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="B119" s="6">
         <v>800</v>
@@ -5321,13 +5321,13 @@
         <v>858</v>
       </c>
       <c r="G119" s="6" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="H119" s="7">
         <v>36329</v>
       </c>
       <c r="I119" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="J119">
         <v>800</v>
@@ -5335,7 +5335,7 @@
     </row>
     <row r="120" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" s="8" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="B120" s="9">
         <v>533</v>
@@ -5353,13 +5353,13 @@
         <v>25</v>
       </c>
       <c r="G120" s="9" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="H120" s="10">
         <v>35065</v>
       </c>
       <c r="I120" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="J120">
         <v>533</v>
@@ -5367,7 +5367,7 @@
     </row>
     <row r="121" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A121" s="5" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="B121" s="6">
         <v>521</v>
@@ -5385,13 +5385,13 @@
         <v>58</v>
       </c>
       <c r="G121" s="6" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="H121" s="7">
         <v>41957</v>
       </c>
       <c r="I121" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="J121">
         <v>522</v>
@@ -5399,7 +5399,7 @@
     </row>
     <row r="122" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A122" s="8" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="B122" s="9">
         <v>746</v>
@@ -5417,13 +5417,13 @@
         <v>38</v>
       </c>
       <c r="G122" s="9" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="H122" s="10">
         <v>40177</v>
       </c>
       <c r="I122" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="J122">
         <v>579</v>
@@ -5431,7 +5431,7 @@
     </row>
     <row r="123" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A123" s="5" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="B123" s="6">
         <v>515</v>
@@ -5449,13 +5449,13 @@
         <v>96</v>
       </c>
       <c r="G123" s="6" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="H123" s="7">
         <v>37371</v>
       </c>
       <c r="I123" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="J123">
         <v>932</v>
@@ -5463,7 +5463,7 @@
     </row>
     <row r="124" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A124" s="8" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="B124" s="9">
         <v>965</v>
@@ -5481,13 +5481,13 @@
         <v>380</v>
       </c>
       <c r="G124" s="9" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="H124" s="10">
         <v>40391</v>
       </c>
       <c r="I124" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="J124">
         <v>522</v>
@@ -5495,7 +5495,7 @@
     </row>
     <row r="125" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A125" s="5" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="B125" s="6">
         <v>734</v>
@@ -5513,13 +5513,13 @@
         <v>73</v>
       </c>
       <c r="G125" s="6" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="H125" s="7">
         <v>35200</v>
       </c>
       <c r="I125" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="J125">
         <v>734</v>
@@ -5527,7 +5527,7 @@
     </row>
     <row r="126" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A126" s="8" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="B126" s="9">
         <v>975</v>
@@ -5551,7 +5551,7 @@
         <v>40391</v>
       </c>
       <c r="I126" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="J126">
         <v>522</v>
@@ -5559,7 +5559,7 @@
     </row>
     <row r="127" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A127" s="5" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="B127" s="6">
         <v>520</v>
@@ -5583,7 +5583,7 @@
         <v>42605</v>
       </c>
       <c r="I127" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="J127">
         <v>522</v>
@@ -5591,7 +5591,7 @@
     </row>
     <row r="128" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A128" s="8" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="B128" s="9">
         <v>929</v>
@@ -5609,13 +5609,13 @@
         <v>32</v>
       </c>
       <c r="G128" s="9" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="H128" s="10">
         <v>37257</v>
       </c>
       <c r="I128" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="J128">
         <v>770</v>
@@ -5623,7 +5623,7 @@
     </row>
     <row r="129" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A129" s="5" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="B129" s="6">
         <v>770</v>
@@ -5641,13 +5641,13 @@
         <v>35</v>
       </c>
       <c r="G129" s="6" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="H129" s="7">
         <v>35375</v>
       </c>
       <c r="I129" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="J129">
         <v>770</v>
@@ -5655,7 +5655,7 @@
     </row>
     <row r="130" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A130" s="8" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="B130" s="9">
         <v>542</v>
@@ -5673,13 +5673,13 @@
         <v>15</v>
       </c>
       <c r="G130" s="9" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="H130" s="10">
         <v>35065</v>
       </c>
       <c r="I130" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="J130">
         <v>541</v>
@@ -5687,7 +5687,7 @@
     </row>
     <row r="131" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A131" s="5" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="B131" s="6">
         <v>541</v>
@@ -5705,13 +5705,13 @@
         <v>103</v>
       </c>
       <c r="G131" s="6" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="H131" s="7">
         <v>35065</v>
       </c>
       <c r="I131" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="J131">
         <v>541</v>
@@ -5719,7 +5719,7 @@
     </row>
     <row r="132" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A132" s="8" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="B132" s="9">
         <v>927</v>
@@ -5737,13 +5737,13 @@
         <v>99</v>
       </c>
       <c r="G132" s="9" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="H132" s="10">
         <v>41166</v>
       </c>
       <c r="I132" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="J132">
         <v>932</v>
@@ -5751,7 +5751,7 @@
     </row>
     <row r="133" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A133" s="5" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="B133" s="6">
         <v>721</v>
@@ -5769,13 +5769,13 @@
         <v>40</v>
       </c>
       <c r="G133" s="6" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="H133" s="7">
         <v>40184</v>
       </c>
       <c r="I133" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="J133">
         <v>718</v>
@@ -5783,7 +5783,7 @@
     </row>
     <row r="134" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A134" s="8" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="B134" s="9">
         <v>967</v>
@@ -5801,13 +5801,13 @@
         <v>97</v>
       </c>
       <c r="G134" s="9" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="H134" s="10">
         <v>40391</v>
       </c>
       <c r="I134" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="J134">
         <v>522</v>
@@ -5815,7 +5815,7 @@
     </row>
     <row r="135" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A135" s="5" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="B135" s="6">
         <v>724</v>
@@ -5833,13 +5833,13 @@
         <v>75</v>
       </c>
       <c r="G135" s="6" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="H135" s="7">
         <v>35195</v>
       </c>
       <c r="I135" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="J135">
         <v>724</v>
@@ -5847,7 +5847,7 @@
     </row>
     <row r="136" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A136" s="8" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B136" s="9">
         <v>739</v>
@@ -5865,13 +5865,13 @@
         <v>110</v>
       </c>
       <c r="G136" s="9" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="H136" s="10">
         <v>34711</v>
       </c>
       <c r="I136" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="J136">
         <v>739</v>
@@ -5879,7 +5879,7 @@
     </row>
     <row r="137" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A137" s="5" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="B137" s="6">
         <v>666</v>
@@ -5897,13 +5897,13 @@
         <v>840</v>
       </c>
       <c r="G137" s="6" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="H137" s="7">
         <v>36314</v>
       </c>
       <c r="I137" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="J137">
         <v>666</v>
@@ -5911,7 +5911,7 @@
     </row>
     <row r="138" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A138" s="8" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="B138" s="9">
         <v>847</v>
@@ -5929,13 +5929,13 @@
         <v>202</v>
       </c>
       <c r="G138" s="9" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="H138" s="10">
         <v>40561</v>
       </c>
       <c r="I138" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="J138">
         <v>558</v>
@@ -5943,7 +5943,7 @@
     </row>
     <row r="139" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A139" s="5" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="B139" s="6">
         <v>551</v>
@@ -5961,13 +5961,13 @@
         <v>48</v>
       </c>
       <c r="G139" s="6" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="H139" s="7">
         <v>38777</v>
       </c>
       <c r="I139" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="J139">
         <v>551</v>
@@ -5975,7 +5975,7 @@
     </row>
     <row r="140" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A140" s="8" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="B140" s="9">
         <v>543</v>
@@ -5993,13 +5993,13 @@
         <v>16</v>
       </c>
       <c r="G140" s="9" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="H140" s="10">
         <v>35065</v>
       </c>
       <c r="I140" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="J140">
         <v>551</v>
@@ -6007,7 +6007,7 @@
     </row>
     <row r="141" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A141" s="5" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="B141" s="6">
         <v>610</v>
@@ -6025,13 +6025,13 @@
         <v>18</v>
       </c>
       <c r="G141" s="6" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="H141" s="7">
         <v>40604</v>
       </c>
       <c r="I141" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="J141">
         <v>551</v>
@@ -6039,7 +6039,7 @@
     </row>
     <row r="142" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A142" s="8" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="B142" s="9">
         <v>604</v>
@@ -6057,13 +6057,13 @@
         <v>34</v>
       </c>
       <c r="G142" s="9" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="H142" s="10">
         <v>36275</v>
       </c>
       <c r="I142" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="J142">
         <v>551</v>
@@ -6071,7 +6071,7 @@
     </row>
     <row r="143" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A143" s="5" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="B143" s="6">
         <v>567</v>
@@ -6089,13 +6089,13 @@
         <v>561</v>
       </c>
       <c r="G143" s="6" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="H143" s="7">
         <v>35065</v>
       </c>
       <c r="I143" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="J143">
         <v>567</v>
@@ -6103,7 +6103,7 @@
     </row>
     <row r="144" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A144" s="8" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="B144" s="9">
         <v>566</v>
@@ -6121,13 +6121,13 @@
         <v>481</v>
       </c>
       <c r="G144" s="9" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="H144" s="10">
         <v>40329</v>
       </c>
       <c r="I144" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="J144">
         <v>567</v>
@@ -6135,7 +6135,7 @@
     </row>
     <row r="145" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A145" s="5" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="B145" s="6">
         <v>866</v>
@@ -6153,13 +6153,13 @@
         <v>11</v>
       </c>
       <c r="G145" s="6" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="H145" s="7">
         <v>40561</v>
       </c>
       <c r="I145" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="J145">
         <v>554</v>
@@ -6167,7 +6167,7 @@
     </row>
     <row r="146" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A146" s="8" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="B146" s="9">
         <v>612</v>
@@ -6185,13 +6185,13 @@
         <v>773</v>
       </c>
       <c r="G146" s="9" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="H146" s="10">
         <v>40417</v>
       </c>
       <c r="I146" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="J146">
         <v>575</v>
@@ -6199,7 +6199,7 @@
     </row>
     <row r="147" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A147" s="5" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="B147" s="6">
         <v>560</v>
@@ -6217,13 +6217,13 @@
         <v>636</v>
       </c>
       <c r="G147" s="6" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="H147" s="7">
         <v>35065</v>
       </c>
       <c r="I147" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="J147">
         <v>560</v>
@@ -6231,7 +6231,7 @@
     </row>
     <row r="148" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A148" s="8" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="B148" s="9">
         <v>675</v>
@@ -6249,13 +6249,13 @@
         <v>443</v>
       </c>
       <c r="G148" s="9" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="H148" s="10">
         <v>40633</v>
       </c>
       <c r="I148" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="J148">
         <v>560</v>
@@ -6263,7 +6263,7 @@
     </row>
     <row r="149" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A149" s="5" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="B149" s="6">
         <v>788</v>
@@ -6281,7 +6281,7 @@
         <v>67</v>
       </c>
       <c r="G149" s="6" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="H149" s="7">
         <v>40214</v>
@@ -6295,7 +6295,7 @@
     </row>
     <row r="150" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A150" s="8" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B150" s="9">
         <v>803</v>
@@ -6313,13 +6313,13 @@
         <v>374</v>
       </c>
       <c r="G150" s="9" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="H150" s="10">
         <v>36348</v>
       </c>
       <c r="I150" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="J150">
         <v>803</v>
@@ -6327,7 +6327,7 @@
     </row>
     <row r="151" spans="1:10" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A151" s="11" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="B151" s="12">
         <v>558</v>
@@ -6345,13 +6345,13 @@
         <v>246</v>
       </c>
       <c r="G151" s="12" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="H151" s="13">
         <v>35065</v>
       </c>
       <c r="I151" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="J151">
         <v>558</v>
